--- a/results/YOLOv4-coco/1/YOLOv4-coco_1.xlsx
+++ b/results/YOLOv4-coco/1/YOLOv4-coco_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebpobee\Documents\MATLAB\MR_Composition_OD\results\YOLOv4-coco\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943338EA-C2A9-4F9B-99D5-A42883586E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF42BAAC-51A6-48C9-A6CD-ECA12AC7AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="345" windowWidth="21600" windowHeight="11775" xr2:uid="{A361BCAF-F235-42BF-8D96-74F3065220B0}"/>
+    <workbookView xWindow="2115" yWindow="2805" windowWidth="21600" windowHeight="11835" xr2:uid="{D170A0CD-E7EB-41D7-98B6-66E9769DFE98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5865F89-E61D-41E0-9773-B6A004C7DEE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC3491B-EA82-4E27-A3A6-8EF48421A3CC}">
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -505,37 +505,37 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D2">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E2">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F2">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G2">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H2">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I2">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J2">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K2">
-        <v>3.2456371000000002</v>
+        <v>236.25653560000001</v>
       </c>
       <c r="L2">
-        <v>3.4780164</v>
+        <v>282.1808643</v>
       </c>
       <c r="M2">
-        <v>2.8410606</v>
+        <v>244.96284600000001</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -546,37 +546,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D3">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E3">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F3">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G3">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H3">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I3">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J3">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K3">
-        <v>2.5810824999999999</v>
+        <v>229.4437552</v>
       </c>
       <c r="L3">
-        <v>2.5165791999999998</v>
+        <v>202.5568614</v>
       </c>
       <c r="M3">
-        <v>2.5331269000000001</v>
+        <v>237.41642580000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -587,37 +587,37 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D4">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E4">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F4">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G4">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H4">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I4">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J4">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K4">
-        <v>2.6812868999999999</v>
+        <v>282.63041809999999</v>
       </c>
       <c r="L4">
-        <v>2.6011624000000002</v>
+        <v>290.78806079999998</v>
       </c>
       <c r="M4">
-        <v>2.5436076000000001</v>
+        <v>252.90889440000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -628,37 +628,37 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D5">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E5">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F5">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G5">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H5">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I5">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J5">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K5">
-        <v>2.5450667</v>
+        <v>244.8351993</v>
       </c>
       <c r="L5">
-        <v>2.5951265000000001</v>
+        <v>268.4347118</v>
       </c>
       <c r="M5">
-        <v>2.5571920000000001</v>
+        <v>263.2511682</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -669,37 +669,37 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D6">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E6">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F6">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G6">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H6">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I6">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J6">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K6">
-        <v>2.4977645000000002</v>
+        <v>254.52951759999999</v>
       </c>
       <c r="L6">
-        <v>2.4974455</v>
+        <v>250.28493979999999</v>
       </c>
       <c r="M6">
-        <v>2.5092884999999998</v>
+        <v>242.02597259999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -710,37 +710,37 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D7">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E7">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F7">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G7">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H7">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I7">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J7">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K7">
-        <v>2.7652272</v>
+        <v>261.36766590000002</v>
       </c>
       <c r="L7">
-        <v>2.4893874</v>
+        <v>252.99018799999999</v>
       </c>
       <c r="M7">
-        <v>2.4889811000000002</v>
+        <v>244.7482301</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -751,37 +751,37 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D8">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E8">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F8">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G8">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H8">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I8">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J8">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K8">
-        <v>2.5023756000000001</v>
+        <v>252.82007329999999</v>
       </c>
       <c r="L8">
-        <v>2.4645397999999998</v>
+        <v>274.6149484</v>
       </c>
       <c r="M8">
-        <v>2.4665707000000001</v>
+        <v>243.16884590000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -792,37 +792,37 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D9">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E9">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F9">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G9">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H9">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I9">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J9">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K9">
-        <v>2.4695469999999999</v>
+        <v>238.38262219999999</v>
       </c>
       <c r="L9">
-        <v>2.4739659000000001</v>
+        <v>238.7870461</v>
       </c>
       <c r="M9">
-        <v>2.4911067</v>
+        <v>243.3595033</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -833,37 +833,37 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D10">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E10">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F10">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G10">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H10">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I10">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J10">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K10">
-        <v>2.4786055</v>
+        <v>258.5005726</v>
       </c>
       <c r="L10">
-        <v>2.4639544</v>
+        <v>287.11663420000002</v>
       </c>
       <c r="M10">
-        <v>2.4791051999999998</v>
+        <v>264.13834309999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -874,37 +874,37 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D11">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="E11">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="F11">
-        <v>0.875</v>
+        <v>0.60272405372405369</v>
       </c>
       <c r="G11">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H11">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="I11">
-        <v>0.875</v>
+        <v>0.63238882462566681</v>
       </c>
       <c r="J11">
-        <v>0.875</v>
+        <v>0.63150518925518928</v>
       </c>
       <c r="K11">
-        <v>2.4704144000000001</v>
+        <v>291.58774369999998</v>
       </c>
       <c r="L11">
-        <v>2.4780432999999999</v>
+        <v>296.03353069999997</v>
       </c>
       <c r="M11">
-        <v>2.4569762000000002</v>
+        <v>227.21429560000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -915,37 +915,37 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D12">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E12">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F12">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G12">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H12">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I12">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J12">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K12">
-        <v>2.4962311000000001</v>
+        <v>297.88140779999998</v>
       </c>
       <c r="L12">
-        <v>2.4874643999999999</v>
+        <v>303.87964540000002</v>
       </c>
       <c r="M12">
-        <v>2.5017121000000002</v>
+        <v>250.99964360000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -956,37 +956,37 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D13">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E13">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F13">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G13">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H13">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I13">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J13">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K13">
-        <v>2.4733508999999998</v>
+        <v>249.4957387</v>
       </c>
       <c r="L13">
-        <v>2.4742652000000001</v>
+        <v>253.66968879999999</v>
       </c>
       <c r="M13">
-        <v>2.4883223000000001</v>
+        <v>249.85870249999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -997,37 +997,37 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D14">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F14">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G14">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H14">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I14">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J14">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K14">
-        <v>2.4692552999999999</v>
+        <v>256.29356300000001</v>
       </c>
       <c r="L14">
-        <v>2.4966054</v>
+        <v>252.41895210000001</v>
       </c>
       <c r="M14">
-        <v>2.5194375999999998</v>
+        <v>212.85887</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,37 +1038,37 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D15">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E15">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F15">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G15">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H15">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I15">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J15">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K15">
-        <v>2.4909903999999998</v>
+        <v>163.141199</v>
       </c>
       <c r="L15">
-        <v>2.4873622000000002</v>
+        <v>171.3872083</v>
       </c>
       <c r="M15">
-        <v>2.5140555999999998</v>
+        <v>177.14328159999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1079,37 +1079,37 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D16">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E16">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F16">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G16">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H16">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I16">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J16">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K16">
-        <v>2.4665615000000001</v>
+        <v>183.6448341</v>
       </c>
       <c r="L16">
-        <v>2.4805226999999999</v>
+        <v>168.11564809999999</v>
       </c>
       <c r="M16">
-        <v>2.4995704999999999</v>
+        <v>166.58947509999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1120,37 +1120,37 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D17">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F17">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G17">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H17">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I17">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J17">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K17">
-        <v>2.4967861</v>
+        <v>143.42121650000001</v>
       </c>
       <c r="L17">
-        <v>2.4889062000000002</v>
+        <v>143.6751122</v>
       </c>
       <c r="M17">
-        <v>2.4683245999999999</v>
+        <v>143.74975370000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1161,37 +1161,37 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D18">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E18">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F18">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G18">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H18">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J18">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K18">
-        <v>2.5137394999999998</v>
+        <v>136.61096879999999</v>
       </c>
       <c r="L18">
-        <v>2.4810199000000002</v>
+        <v>144.1588836</v>
       </c>
       <c r="M18">
-        <v>2.4901187</v>
+        <v>141.32473780000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1202,37 +1202,37 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D19">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E19">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F19">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G19">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H19">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I19">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J19">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K19">
-        <v>2.4770517000000001</v>
+        <v>136.8477982</v>
       </c>
       <c r="L19">
-        <v>2.4841544</v>
+        <v>140.73008039999999</v>
       </c>
       <c r="M19">
-        <v>2.483819</v>
+        <v>137.11654569999999</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,37 +1243,37 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D20">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E20">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F20">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G20">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H20">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I20">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J20">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K20">
-        <v>2.4945677000000002</v>
+        <v>143.78720029999999</v>
       </c>
       <c r="L20">
-        <v>2.4802688000000002</v>
+        <v>151.47543110000001</v>
       </c>
       <c r="M20">
-        <v>2.5019676999999998</v>
+        <v>155.07020030000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1284,37 +1284,37 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D21">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E21">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F21">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G21">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H21">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I21">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J21">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K21">
-        <v>2.5136842000000001</v>
+        <v>148.56607489999999</v>
       </c>
       <c r="L21">
-        <v>2.5136748</v>
+        <v>160.81285829999999</v>
       </c>
       <c r="M21">
-        <v>2.5058459000000002</v>
+        <v>161.99521820000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1325,37 +1325,37 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D22">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F22">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G22">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H22">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I22">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J22">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K22">
-        <v>2.4986909000000002</v>
+        <v>166.77921660000001</v>
       </c>
       <c r="L22">
-        <v>2.4960971999999999</v>
+        <v>200.86381019999999</v>
       </c>
       <c r="M22">
-        <v>2.4967766</v>
+        <v>191.25549989999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1366,37 +1366,37 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D23">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E23">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F23">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G23">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H23">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I23">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J23">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K23">
-        <v>2.5194139</v>
+        <v>174.10329369999999</v>
       </c>
       <c r="L23">
-        <v>2.5193729</v>
+        <v>191.91401210000001</v>
       </c>
       <c r="M23">
-        <v>2.5228703000000001</v>
+        <v>189.26302559999999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1407,37 +1407,37 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D24">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E24">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F24">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G24">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H24">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I24">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J24">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K24">
-        <v>2.5121869000000001</v>
+        <v>198.59547850000001</v>
       </c>
       <c r="L24">
-        <v>2.5356234</v>
+        <v>196.59005049999999</v>
       </c>
       <c r="M24">
-        <v>2.5179689000000001</v>
+        <v>167.44380219999999</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1448,37 +1448,37 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D25">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E25">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F25">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G25">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H25">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I25">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J25">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K25">
-        <v>2.5047963000000002</v>
+        <v>168.67236869999999</v>
       </c>
       <c r="L25">
-        <v>2.5420400000000001</v>
+        <v>160.45560330000001</v>
       </c>
       <c r="M25">
-        <v>2.5093671999999998</v>
+        <v>166.1327728</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1489,37 +1489,37 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D26">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E26">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F26">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G26">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H26">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I26">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J26">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K26">
-        <v>2.4907300999999999</v>
+        <v>162.74537889999999</v>
       </c>
       <c r="L26">
-        <v>2.4998244999999999</v>
+        <v>164.02313710000001</v>
       </c>
       <c r="M26">
-        <v>2.5463851000000002</v>
+        <v>204.235557</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1530,37 +1530,37 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D27">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E27">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F27">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G27">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H27">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I27">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J27">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K27">
-        <v>2.5113327999999999</v>
+        <v>157.01778909999999</v>
       </c>
       <c r="L27">
-        <v>2.4993615</v>
+        <v>177.40648909999999</v>
       </c>
       <c r="M27">
-        <v>2.5269903999999999</v>
+        <v>179.43335250000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1571,37 +1571,37 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D28">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E28">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F28">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G28">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H28">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I28">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J28">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K28">
-        <v>2.4835419000000001</v>
+        <v>184.89684080000001</v>
       </c>
       <c r="L28">
-        <v>2.4959262999999998</v>
+        <v>177.2273252</v>
       </c>
       <c r="M28">
-        <v>2.4942134999999999</v>
+        <v>152.08311140000001</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1612,37 +1612,37 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D29">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F29">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G29">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H29">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I29">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J29">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K29">
-        <v>2.4995376</v>
+        <v>137.83600229999999</v>
       </c>
       <c r="L29">
-        <v>2.4979011999999998</v>
+        <v>143.89694679999999</v>
       </c>
       <c r="M29">
-        <v>2.5050257</v>
+        <v>150.21379619999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1653,37 +1653,37 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D30">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E30">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F30">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G30">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H30">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I30">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J30">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K30">
-        <v>2.5196149999999999</v>
+        <v>143.1254783</v>
       </c>
       <c r="L30">
-        <v>2.5124920999999998</v>
+        <v>148.78627900000001</v>
       </c>
       <c r="M30">
-        <v>2.5364594999999999</v>
+        <v>147.28171739999999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1694,37 +1694,37 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D31">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E31">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F31">
-        <v>-0.625</v>
+        <v>6.22816803079961E-2</v>
       </c>
       <c r="G31">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H31">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I31">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J31">
-        <v>0.125</v>
+        <v>0.11500274579221946</v>
       </c>
       <c r="K31">
-        <v>2.5205323000000002</v>
+        <v>149.84381740000001</v>
       </c>
       <c r="L31">
-        <v>2.5340989</v>
+        <v>145.6717768</v>
       </c>
       <c r="M31">
-        <v>2.5137521</v>
+        <v>150.46121650000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1735,37 +1735,37 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D32">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E32">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F32">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G32">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H32">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I32">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J32">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K32">
-        <v>2.5215108000000002</v>
+        <v>149.94104089999999</v>
       </c>
       <c r="L32">
-        <v>2.6422077000000002</v>
+        <v>166.9830163</v>
       </c>
       <c r="M32">
-        <v>2.6404995000000002</v>
+        <v>176.21011530000001</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,37 +1776,37 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E33">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F33">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G33">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H33">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I33">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J33">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K33">
-        <v>2.4974007</v>
+        <v>186.1667793</v>
       </c>
       <c r="L33">
-        <v>2.6331962</v>
+        <v>173.09543170000001</v>
       </c>
       <c r="M33">
-        <v>2.5997309999999998</v>
+        <v>176.90919529999999</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1817,37 +1817,37 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D34">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E34">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F34">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G34">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H34">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I34">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J34">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K34">
-        <v>2.5055057999999999</v>
+        <v>161.42804290000001</v>
       </c>
       <c r="L34">
-        <v>2.6230913</v>
+        <v>172.82020919999999</v>
       </c>
       <c r="M34">
-        <v>2.6258172000000002</v>
+        <v>160.51174080000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1858,37 +1858,37 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D35">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E35">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F35">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G35">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H35">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I35">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J35">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K35">
-        <v>2.5389588000000001</v>
+        <v>145.24504429999999</v>
       </c>
       <c r="L35">
-        <v>2.6204125</v>
+        <v>152.59001330000001</v>
       </c>
       <c r="M35">
-        <v>2.6252778999999999</v>
+        <v>154.17496149999999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1899,37 +1899,37 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E36">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F36">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G36">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H36">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I36">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J36">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K36">
-        <v>2.5294631000000001</v>
+        <v>152.30580810000001</v>
       </c>
       <c r="L36">
-        <v>2.6194921999999998</v>
+        <v>159.95051849999999</v>
       </c>
       <c r="M36">
-        <v>2.6163006000000002</v>
+        <v>173.10835019999999</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1940,37 +1940,37 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D37">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E37">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F37">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G37">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H37">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I37">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J37">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K37">
-        <v>2.5474492999999998</v>
+        <v>248.41400419999999</v>
       </c>
       <c r="L37">
-        <v>2.6297730000000001</v>
+        <v>267.40027140000001</v>
       </c>
       <c r="M37">
-        <v>2.6449094</v>
+        <v>273.68458629999998</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1981,37 +1981,37 @@
         <v>17</v>
       </c>
       <c r="C38">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D38">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E38">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F38">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G38">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H38">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I38">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J38">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K38">
-        <v>2.4923253000000001</v>
+        <v>281.88276489999998</v>
       </c>
       <c r="L38">
-        <v>2.6081177000000002</v>
+        <v>287.22475709999998</v>
       </c>
       <c r="M38">
-        <v>2.6804861</v>
+        <v>298.20775509999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,37 +2022,37 @@
         <v>17</v>
       </c>
       <c r="C39">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D39">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E39">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F39">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G39">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H39">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I39">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J39">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K39">
-        <v>2.5329242999999999</v>
+        <v>259.07040610000001</v>
       </c>
       <c r="L39">
-        <v>2.6780767000000001</v>
+        <v>278.09534059999999</v>
       </c>
       <c r="M39">
-        <v>2.6201069000000001</v>
+        <v>272.99143420000001</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2063,37 +2063,37 @@
         <v>17</v>
       </c>
       <c r="C40">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D40">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E40">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F40">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G40">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H40">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I40">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J40">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K40">
-        <v>2.5121628999999999</v>
+        <v>275.19646619999997</v>
       </c>
       <c r="L40">
-        <v>2.6195363</v>
+        <v>425.50274059999998</v>
       </c>
       <c r="M40">
-        <v>2.6470137</v>
+        <v>392.55859659999999</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2104,37 +2104,37 @@
         <v>17</v>
       </c>
       <c r="C41">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D41">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E41">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F41">
-        <v>-0.25</v>
+        <v>2.1501091014248911E-2</v>
       </c>
       <c r="G41">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H41">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I41">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J41">
-        <v>0.375</v>
+        <v>0.11310579186894977</v>
       </c>
       <c r="K41">
-        <v>2.4991883000000001</v>
+        <v>346.60331050000002</v>
       </c>
       <c r="L41">
-        <v>2.6242043000000002</v>
+        <v>262.90102089999999</v>
       </c>
       <c r="M41">
-        <v>2.6228408999999999</v>
+        <v>249.8673096</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2145,37 +2145,37 @@
         <v>18</v>
       </c>
       <c r="C42">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E42">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F42">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G42">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H42">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I42">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J42">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K42">
-        <v>2.5343757</v>
+        <v>175.88670759999999</v>
       </c>
       <c r="L42">
-        <v>2.6918985000000002</v>
+        <v>153.7190401</v>
       </c>
       <c r="M42">
-        <v>2.6673681999999999</v>
+        <v>152.4275476</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2186,37 +2186,37 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E43">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F43">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G43">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H43">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I43">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J43">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K43">
-        <v>2.5108907999999999</v>
+        <v>145.41003359999999</v>
       </c>
       <c r="L43">
-        <v>2.6317724999999998</v>
+        <v>152.1436047</v>
       </c>
       <c r="M43">
-        <v>2.6146539</v>
+        <v>151.68683669999999</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2227,37 +2227,37 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E44">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F44">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G44">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H44">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I44">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J44">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K44">
-        <v>2.5224079000000001</v>
+        <v>145.15199609999999</v>
       </c>
       <c r="L44">
-        <v>2.6240847</v>
+        <v>152.98671920000001</v>
       </c>
       <c r="M44">
-        <v>2.6360871000000001</v>
+        <v>153.5998055</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2268,37 +2268,37 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E45">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F45">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G45">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H45">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I45">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J45">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K45">
-        <v>2.5166460000000002</v>
+        <v>145.32600500000001</v>
       </c>
       <c r="L45">
-        <v>2.6292651999999999</v>
+        <v>150.9724386</v>
       </c>
       <c r="M45">
-        <v>2.6185839999999998</v>
+        <v>151.11468500000001</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2309,37 +2309,37 @@
         <v>18</v>
       </c>
       <c r="C46">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E46">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F46">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G46">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H46">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I46">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J46">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K46">
-        <v>2.5625439000000001</v>
+        <v>142.5000359</v>
       </c>
       <c r="L46">
-        <v>2.6238648000000002</v>
+        <v>142.4723449</v>
       </c>
       <c r="M46">
-        <v>2.6459134</v>
+        <v>147.543747</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2350,37 +2350,37 @@
         <v>18</v>
       </c>
       <c r="C47">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E47">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F47">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G47">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H47">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I47">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J47">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K47">
-        <v>2.5438304</v>
+        <v>139.9833759</v>
       </c>
       <c r="L47">
-        <v>2.7107651000000001</v>
+        <v>145.40618910000001</v>
       </c>
       <c r="M47">
-        <v>2.7658198999999999</v>
+        <v>144.39814010000001</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2391,37 +2391,37 @@
         <v>18</v>
       </c>
       <c r="C48">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E48">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F48">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G48">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H48">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I48">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J48">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K48">
-        <v>2.5946262999999998</v>
+        <v>138.09493309999999</v>
       </c>
       <c r="L48">
-        <v>2.6743651000000002</v>
+        <v>145.85844220000001</v>
       </c>
       <c r="M48">
-        <v>2.6881069000000002</v>
+        <v>145.8167966</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2432,37 +2432,37 @@
         <v>18</v>
       </c>
       <c r="C49">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E49">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F49">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G49">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H49">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I49">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J49">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K49">
-        <v>2.5826519999999999</v>
+        <v>138.01934360000001</v>
       </c>
       <c r="L49">
-        <v>2.9857854000000001</v>
+        <v>145.94926599999999</v>
       </c>
       <c r="M49">
-        <v>2.9062318</v>
+        <v>146.1923554</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2473,37 +2473,37 @@
         <v>18</v>
       </c>
       <c r="C50">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E50">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F50">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G50">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H50">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I50">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J50">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K50">
-        <v>2.6163265999999998</v>
+        <v>138.74218690000001</v>
       </c>
       <c r="L50">
-        <v>2.7486399000000001</v>
+        <v>147.13533709999999</v>
       </c>
       <c r="M50">
-        <v>2.7162839000000001</v>
+        <v>145.9520861</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2514,37 +2514,37 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>-0.25</v>
+        <v>-3.2053659790501898E-2</v>
       </c>
       <c r="D51">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E51">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F51">
-        <v>-0.125</v>
+        <v>1.2046146835620523E-2</v>
       </c>
       <c r="G51">
-        <v>0.125</v>
+        <v>4.8111175374333272E-2</v>
       </c>
       <c r="H51">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I51">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J51">
-        <v>0.25</v>
+        <v>8.841946795894165E-2</v>
       </c>
       <c r="K51">
-        <v>2.5944945000000001</v>
+        <v>137.53796009999999</v>
       </c>
       <c r="L51">
-        <v>2.7172046000000001</v>
+        <v>145.37025059999999</v>
       </c>
       <c r="M51">
-        <v>2.7203762</v>
+        <v>143.51422360000001</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2555,37 +2555,37 @@
         <v>15</v>
       </c>
       <c r="C52">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D52">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E52">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F52">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G52">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H52">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I52">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J52">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K52">
-        <v>2.6310410000000002</v>
+        <v>137.7208832</v>
       </c>
       <c r="L52">
-        <v>2.6100916000000001</v>
+        <v>134.71693250000001</v>
       </c>
       <c r="M52">
-        <v>2.6264080000000001</v>
+        <v>136.30142470000001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2596,37 +2596,37 @@
         <v>15</v>
       </c>
       <c r="C53">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D53">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E53">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F53">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G53">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H53">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I53">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J53">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K53">
-        <v>2.6177923000000001</v>
+        <v>135.70213939999999</v>
       </c>
       <c r="L53">
-        <v>2.6829755999999998</v>
+        <v>135.88176100000001</v>
       </c>
       <c r="M53">
-        <v>2.6186821</v>
+        <v>135.55706029999999</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2637,37 +2637,37 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D54">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E54">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F54">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G54">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H54">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I54">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J54">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K54">
-        <v>2.6352248</v>
+        <v>135.28147369999999</v>
       </c>
       <c r="L54">
-        <v>2.6665071</v>
+        <v>136.3135565</v>
       </c>
       <c r="M54">
-        <v>2.6333058999999999</v>
+        <v>135.57745370000001</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2678,37 +2678,37 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D55">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E55">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F55">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G55">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H55">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I55">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J55">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K55">
-        <v>2.6369902000000001</v>
+        <v>135.9266303</v>
       </c>
       <c r="L55">
-        <v>2.6559029000000001</v>
+        <v>135.537102</v>
       </c>
       <c r="M55">
-        <v>2.6114766999999999</v>
+        <v>136.26258469999999</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2719,37 +2719,37 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D56">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E56">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F56">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G56">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H56">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I56">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J56">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K56">
-        <v>2.6029418</v>
+        <v>136.8965432</v>
       </c>
       <c r="L56">
-        <v>2.6396259999999998</v>
+        <v>136.73106559999999</v>
       </c>
       <c r="M56">
-        <v>2.6195021999999999</v>
+        <v>137.80842730000001</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2760,37 +2760,37 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D57">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E57">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F57">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G57">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H57">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I57">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J57">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K57">
-        <v>2.6005758999999999</v>
+        <v>135.82989309999999</v>
       </c>
       <c r="L57">
-        <v>2.6269406000000002</v>
+        <v>136.9359743</v>
       </c>
       <c r="M57">
-        <v>2.5883164999999999</v>
+        <v>137.9672018</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2801,37 +2801,37 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D58">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E58">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F58">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G58">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H58">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I58">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J58">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K58">
-        <v>2.5721649000000002</v>
+        <v>138.41019510000001</v>
       </c>
       <c r="L58">
-        <v>2.6104392999999999</v>
+        <v>138.5441888</v>
       </c>
       <c r="M58">
-        <v>2.5423255</v>
+        <v>137.74492269999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,37 +2842,37 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D59">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E59">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F59">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G59">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H59">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I59">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J59">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K59">
-        <v>2.5293214000000002</v>
+        <v>139.4370547</v>
       </c>
       <c r="L59">
-        <v>2.5858943000000001</v>
+        <v>139.5325569</v>
       </c>
       <c r="M59">
-        <v>2.5705697999999999</v>
+        <v>136.52017789999999</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2883,37 +2883,37 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D60">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E60">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F60">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G60">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H60">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I60">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J60">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K60">
-        <v>2.5512394</v>
+        <v>140.30334149999999</v>
       </c>
       <c r="L60">
-        <v>2.5575936000000001</v>
+        <v>139.07229530000001</v>
       </c>
       <c r="M60">
-        <v>2.5534053999999999</v>
+        <v>135.32838889999999</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2924,37 +2924,37 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D61">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E61">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F61">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G61">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H61">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I61">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J61">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K61">
-        <v>2.5373231000000001</v>
+        <v>136.26955129999999</v>
       </c>
       <c r="L61">
-        <v>2.5379236999999999</v>
+        <v>138.73841959999999</v>
       </c>
       <c r="M61">
-        <v>2.5435873999999998</v>
+        <v>139.52910650000001</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2965,37 +2965,37 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D62">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E62">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F62">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G62">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H62">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I62">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J62">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K62">
-        <v>2.5186890000000002</v>
+        <v>137.76250880000001</v>
       </c>
       <c r="L62">
-        <v>2.4932563000000001</v>
+        <v>137.6250503</v>
       </c>
       <c r="M62">
-        <v>2.5218169000000001</v>
+        <v>136.25910239999999</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3006,37 +3006,37 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D63">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E63">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F63">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G63">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H63">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I63">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J63">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K63">
-        <v>2.7791115999999998</v>
+        <v>133.8455372</v>
       </c>
       <c r="L63">
-        <v>2.7456475999999999</v>
+        <v>135.45082740000001</v>
       </c>
       <c r="M63">
-        <v>2.5097746000000001</v>
+        <v>136.61522260000001</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3047,37 +3047,37 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D64">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E64">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F64">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G64">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H64">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I64">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J64">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K64">
-        <v>2.4932609000000001</v>
+        <v>137.17422809999999</v>
       </c>
       <c r="L64">
-        <v>2.5305437999999998</v>
+        <v>137.1319215</v>
       </c>
       <c r="M64">
-        <v>2.5229707000000001</v>
+        <v>138.821889</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3088,37 +3088,37 @@
         <v>16</v>
       </c>
       <c r="C65">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D65">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E65">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F65">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G65">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H65">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I65">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J65">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K65">
-        <v>2.4979771999999998</v>
+        <v>136.1479387</v>
       </c>
       <c r="L65">
-        <v>2.5400811999999999</v>
+        <v>135.7634817</v>
       </c>
       <c r="M65">
-        <v>2.5335923</v>
+        <v>137.03563500000001</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3129,37 +3129,37 @@
         <v>16</v>
       </c>
       <c r="C66">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D66">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E66">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F66">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G66">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H66">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I66">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J66">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K66">
-        <v>2.5560510000000001</v>
+        <v>136.9085589</v>
       </c>
       <c r="L66">
-        <v>2.5092289999999999</v>
+        <v>136.70600719999999</v>
       </c>
       <c r="M66">
-        <v>2.5234065000000001</v>
+        <v>135.84061030000001</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3170,37 +3170,37 @@
         <v>16</v>
       </c>
       <c r="C67">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D67">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E67">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F67">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G67">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H67">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I67">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J67">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K67">
-        <v>2.5325185000000001</v>
+        <v>135.74651109999999</v>
       </c>
       <c r="L67">
-        <v>2.5097485000000002</v>
+        <v>135.75098009999999</v>
       </c>
       <c r="M67">
-        <v>2.5617559000000001</v>
+        <v>136.5896631</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3211,37 +3211,37 @@
         <v>16</v>
       </c>
       <c r="C68">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D68">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E68">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F68">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G68">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H68">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I68">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J68">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K68">
-        <v>2.5611060000000001</v>
+        <v>136.54972169999999</v>
       </c>
       <c r="L68">
-        <v>2.5238057</v>
+        <v>137.38262779999999</v>
       </c>
       <c r="M68">
-        <v>2.5369012999999998</v>
+        <v>137.996476</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3252,37 +3252,37 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D69">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E69">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F69">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G69">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H69">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I69">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J69">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K69">
-        <v>2.5574156000000001</v>
+        <v>134.68760979999999</v>
       </c>
       <c r="L69">
-        <v>2.5566309</v>
+        <v>136.69124669999999</v>
       </c>
       <c r="M69">
-        <v>2.5557715000000001</v>
+        <v>136.93171150000001</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3293,37 +3293,37 @@
         <v>16</v>
       </c>
       <c r="C70">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D70">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E70">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F70">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G70">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H70">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I70">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J70">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K70">
-        <v>2.5518657</v>
+        <v>137.3024101</v>
       </c>
       <c r="L70">
-        <v>2.5243218000000001</v>
+        <v>138.0607608</v>
       </c>
       <c r="M70">
-        <v>2.5364404</v>
+        <v>138.0133945</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3334,37 +3334,37 @@
         <v>16</v>
       </c>
       <c r="C71">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D71">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="E71">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="F71">
-        <v>0.75</v>
+        <v>0.63927606749975174</v>
       </c>
       <c r="G71">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H71">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="I71">
-        <v>0.25</v>
+        <v>7.4962581278370757E-2</v>
       </c>
       <c r="J71">
-        <v>0.875</v>
+        <v>0.67311197136197132</v>
       </c>
       <c r="K71">
-        <v>2.5709593000000002</v>
+        <v>136.41016200000001</v>
       </c>
       <c r="L71">
-        <v>2.5595123000000002</v>
+        <v>136.8167411</v>
       </c>
       <c r="M71">
-        <v>2.5609415000000002</v>
+        <v>136.54254979999999</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3375,37 +3375,37 @@
         <v>17</v>
       </c>
       <c r="C72">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D72">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E72">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F72">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G72">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H72">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I72">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J72">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K72">
-        <v>2.5871309</v>
+        <v>137.0559676</v>
       </c>
       <c r="L72">
-        <v>2.7005503000000002</v>
+        <v>143.65868929999999</v>
       </c>
       <c r="M72">
-        <v>2.6859415000000002</v>
+        <v>144.1652618</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3416,37 +3416,37 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D73">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E73">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F73">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G73">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H73">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I73">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J73">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K73">
-        <v>2.6194451000000001</v>
+        <v>136.01336749999999</v>
       </c>
       <c r="L73">
-        <v>2.7013661</v>
+        <v>143.67153400000001</v>
       </c>
       <c r="M73">
-        <v>2.7426746</v>
+        <v>142.9288311</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3457,37 +3457,37 @@
         <v>17</v>
       </c>
       <c r="C74">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E74">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F74">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G74">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H74">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I74">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J74">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K74">
-        <v>2.6128783000000002</v>
+        <v>136.129839</v>
       </c>
       <c r="L74">
-        <v>2.7292529000000001</v>
+        <v>144.5049167</v>
       </c>
       <c r="M74">
-        <v>2.726553</v>
+        <v>144.38011460000001</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3498,37 +3498,37 @@
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E75">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F75">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G75">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H75">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I75">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J75">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K75">
-        <v>2.6370092999999999</v>
+        <v>136.19956289999999</v>
       </c>
       <c r="L75">
-        <v>2.8076031000000001</v>
+        <v>142.52734040000001</v>
       </c>
       <c r="M75">
-        <v>2.8384303000000002</v>
+        <v>144.69092929999999</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3539,37 +3539,37 @@
         <v>17</v>
       </c>
       <c r="C76">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D76">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E76">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F76">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G76">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H76">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I76">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J76">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K76">
-        <v>2.6338944999999998</v>
+        <v>137.34713590000001</v>
       </c>
       <c r="L76">
-        <v>2.7712085000000002</v>
+        <v>143.65241710000001</v>
       </c>
       <c r="M76">
-        <v>2.7676308999999999</v>
+        <v>143.43994810000001</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3580,37 +3580,37 @@
         <v>17</v>
       </c>
       <c r="C77">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D77">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E77">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F77">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G77">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H77">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I77">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J77">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K77">
-        <v>2.6521455</v>
+        <v>136.48396600000001</v>
       </c>
       <c r="L77">
-        <v>2.8093431999999998</v>
+        <v>143.1617407</v>
       </c>
       <c r="M77">
-        <v>2.8746217999999999</v>
+        <v>142.7664623</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3621,37 +3621,37 @@
         <v>17</v>
       </c>
       <c r="C78">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D78">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E78">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F78">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G78">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H78">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I78">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J78">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K78">
-        <v>2.6851085000000001</v>
+        <v>137.0869108</v>
       </c>
       <c r="L78">
-        <v>2.778562</v>
+        <v>142.91312619999999</v>
       </c>
       <c r="M78">
-        <v>2.8410565999999999</v>
+        <v>143.94860130000001</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3662,37 +3662,37 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D79">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E79">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F79">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G79">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H79">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I79">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J79">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K79">
-        <v>2.6802594000000002</v>
+        <v>155.20476489999999</v>
       </c>
       <c r="L79">
-        <v>2.8476732999999999</v>
+        <v>151.83900460000001</v>
       </c>
       <c r="M79">
-        <v>2.876671</v>
+        <v>141.3838725</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3703,37 +3703,37 @@
         <v>17</v>
       </c>
       <c r="C80">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E80">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F80">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G80">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H80">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I80">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J80">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K80">
-        <v>2.7093943</v>
+        <v>136.94766630000001</v>
       </c>
       <c r="L80">
-        <v>2.7773766000000002</v>
+        <v>168.219392</v>
       </c>
       <c r="M80">
-        <v>2.7706175000000002</v>
+        <v>174.5540756</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3744,37 +3744,37 @@
         <v>17</v>
       </c>
       <c r="C81">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E81">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F81">
-        <v>0.875</v>
+        <v>0.60865951738320145</v>
       </c>
       <c r="G81">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H81">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I81">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J81">
-        <v>0.875</v>
+        <v>0.6566662328899171</v>
       </c>
       <c r="K81">
-        <v>2.6432639</v>
+        <v>471.54098099999999</v>
       </c>
       <c r="L81">
-        <v>2.8568880999999999</v>
+        <v>367.96466900000001</v>
       </c>
       <c r="M81">
-        <v>2.7770104999999998</v>
+        <v>381.97477720000001</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3785,37 +3785,37 @@
         <v>18</v>
       </c>
       <c r="C82">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D82">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E82">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F82">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G82">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H82">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I82">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J82">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K82">
-        <v>2.6235829000000002</v>
+        <v>346.3910917</v>
       </c>
       <c r="L82">
-        <v>2.7234310000000002</v>
+        <v>35677.002232300001</v>
       </c>
       <c r="M82">
-        <v>2.7129601000000001</v>
+        <v>192.4780748</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3826,37 +3826,37 @@
         <v>18</v>
       </c>
       <c r="C83">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D83">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E83">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F83">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G83">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H83">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I83">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J83">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K83">
-        <v>2.5981892000000002</v>
+        <v>212.84732729999999</v>
       </c>
       <c r="L83">
-        <v>2.7125354000000002</v>
+        <v>198.76790829999999</v>
       </c>
       <c r="M83">
-        <v>2.7227887000000002</v>
+        <v>197.09497630000001</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3867,37 +3867,37 @@
         <v>18</v>
       </c>
       <c r="C84">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E84">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F84">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G84">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H84">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I84">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J84">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K84">
-        <v>2.5887622000000001</v>
+        <v>152.5836577</v>
       </c>
       <c r="L84">
-        <v>2.6822762999999998</v>
+        <v>171.9129178</v>
       </c>
       <c r="M84">
-        <v>2.7132086000000002</v>
+        <v>154.81494090000001</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3908,37 +3908,37 @@
         <v>18</v>
       </c>
       <c r="C85">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D85">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E85">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F85">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G85">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H85">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I85">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J85">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K85">
-        <v>2.5686808000000001</v>
+        <v>153.65250700000001</v>
       </c>
       <c r="L85">
-        <v>2.6697129999999998</v>
+        <v>159.15365869999999</v>
       </c>
       <c r="M85">
-        <v>2.7093292</v>
+        <v>195.32433209999999</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3949,37 +3949,37 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D86">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E86">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F86">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G86">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H86">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I86">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J86">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K86">
-        <v>2.9119716000000002</v>
+        <v>175.18321399999999</v>
       </c>
       <c r="L86">
-        <v>3.1122131999999998</v>
+        <v>174.16289739999999</v>
       </c>
       <c r="M86">
-        <v>2.6308951</v>
+        <v>156.153111</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3990,37 +3990,37 @@
         <v>18</v>
       </c>
       <c r="C87">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D87">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E87">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F87">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G87">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H87">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I87">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J87">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K87">
-        <v>2.5167589000000001</v>
+        <v>177.15779910000001</v>
       </c>
       <c r="L87">
-        <v>2.5998825999999999</v>
+        <v>152.82238749999999</v>
       </c>
       <c r="M87">
-        <v>2.7042508999999999</v>
+        <v>154.63240690000001</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4031,37 +4031,37 @@
         <v>18</v>
       </c>
       <c r="C88">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E88">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F88">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G88">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H88">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I88">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J88">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K88">
-        <v>2.7760745</v>
+        <v>163.17998030000001</v>
       </c>
       <c r="L88">
-        <v>2.8074735</v>
+        <v>176.03850370000001</v>
       </c>
       <c r="M88">
-        <v>2.6246706999999998</v>
+        <v>176.73493149999999</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4072,37 +4072,37 @@
         <v>18</v>
       </c>
       <c r="C89">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D89">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E89">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F89">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G89">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H89">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I89">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J89">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K89">
-        <v>2.5235764000000001</v>
+        <v>184.0102047</v>
       </c>
       <c r="L89">
-        <v>2.6259657999999999</v>
+        <v>193.5187651</v>
       </c>
       <c r="M89">
-        <v>2.6269418</v>
+        <v>191.01858229999999</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4113,37 +4113,37 @@
         <v>18</v>
       </c>
       <c r="C90">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D90">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E90">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F90">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G90">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H90">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I90">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J90">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K90">
-        <v>2.5492816999999999</v>
+        <v>166.20950690000001</v>
       </c>
       <c r="L90">
-        <v>2.6560942000000001</v>
+        <v>159.71507869999999</v>
       </c>
       <c r="M90">
-        <v>2.6474144000000002</v>
+        <v>162.6229161</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4154,37 +4154,37 @@
         <v>18</v>
       </c>
       <c r="C91">
-        <v>0.875</v>
+        <v>0.61975536597905023</v>
       </c>
       <c r="D91">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E91">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F91">
-        <v>0.875</v>
+        <v>0.61548851294903928</v>
       </c>
       <c r="G91">
-        <v>0.875</v>
+        <v>0.64502228327228339</v>
       </c>
       <c r="H91">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I91">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J91">
-        <v>0.875</v>
+        <v>0.69485653235653233</v>
       </c>
       <c r="K91">
-        <v>2.5395066000000002</v>
+        <v>149.37689030000001</v>
       </c>
       <c r="L91">
-        <v>2.6513287999999999</v>
+        <v>155.0831317</v>
       </c>
       <c r="M91">
-        <v>2.6690656000000001</v>
+        <v>158.0139346</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4195,37 +4195,37 @@
         <v>19</v>
       </c>
       <c r="C92">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D92">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E92">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F92">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G92">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H92">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I92">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J92">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K92">
-        <v>2.5814778</v>
+        <v>150.0761296</v>
       </c>
       <c r="L92">
-        <v>2.6614605999999998</v>
+        <v>157.20754199999999</v>
       </c>
       <c r="M92">
-        <v>2.7340955</v>
+        <v>190.19354569999999</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4236,37 +4236,37 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D93">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E93">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F93">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G93">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H93">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I93">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J93">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K93">
-        <v>2.5656487000000001</v>
+        <v>179.28945189999999</v>
       </c>
       <c r="L93">
-        <v>2.6483001000000002</v>
+        <v>189.8686429</v>
       </c>
       <c r="M93">
-        <v>2.6977639999999998</v>
+        <v>192.00826029999999</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4277,37 +4277,37 @@
         <v>19</v>
       </c>
       <c r="C94">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D94">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E94">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F94">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G94">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H94">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I94">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J94">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K94">
-        <v>2.5939692000000001</v>
+        <v>190.6360286</v>
       </c>
       <c r="L94">
-        <v>2.6990843</v>
+        <v>173.3518152</v>
       </c>
       <c r="M94">
-        <v>2.7187210999999998</v>
+        <v>156.39154679999999</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4318,37 +4318,37 @@
         <v>19</v>
       </c>
       <c r="C95">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D95">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E95">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F95">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G95">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H95">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I95">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J95">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K95">
-        <v>2.5925937000000001</v>
+        <v>150.92112109999999</v>
       </c>
       <c r="L95">
-        <v>2.7136631000000002</v>
+        <v>157.15707159999999</v>
       </c>
       <c r="M95">
-        <v>2.7221723999999998</v>
+        <v>160.10335420000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4359,37 +4359,37 @@
         <v>19</v>
       </c>
       <c r="C96">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D96">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E96">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F96">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G96">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H96">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I96">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J96">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K96">
-        <v>2.5973133000000002</v>
+        <v>153.39915139999999</v>
       </c>
       <c r="L96">
-        <v>2.7326475000000001</v>
+        <v>161.6747699</v>
       </c>
       <c r="M96">
-        <v>2.7662646999999998</v>
+        <v>159.53492840000001</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4400,37 +4400,37 @@
         <v>19</v>
       </c>
       <c r="C97">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D97">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E97">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F97">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G97">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H97">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I97">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J97">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K97">
-        <v>2.6011209000000002</v>
+        <v>150.8424899</v>
       </c>
       <c r="L97">
-        <v>2.7351839</v>
+        <v>160.571226</v>
       </c>
       <c r="M97">
-        <v>2.7551890000000001</v>
+        <v>162.74919</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4441,37 +4441,37 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D98">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E98">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F98">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G98">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H98">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I98">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J98">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K98">
-        <v>2.6120336000000002</v>
+        <v>153.70862489999999</v>
       </c>
       <c r="L98">
-        <v>2.7232482999999998</v>
+        <v>162.34627900000001</v>
       </c>
       <c r="M98">
-        <v>2.7718389999999999</v>
+        <v>160.94832769999999</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4482,37 +4482,37 @@
         <v>19</v>
       </c>
       <c r="C99">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D99">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E99">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F99">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G99">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H99">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I99">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J99">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K99">
-        <v>2.6335085999999999</v>
+        <v>154.6069033</v>
       </c>
       <c r="L99">
-        <v>2.7722245000000001</v>
+        <v>162.86172690000001</v>
       </c>
       <c r="M99">
-        <v>2.7811617000000002</v>
+        <v>162.47635639999999</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4523,37 +4523,37 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D100">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E100">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F100">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G100">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H100">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I100">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J100">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K100">
-        <v>2.644628</v>
+        <v>163.75728960000001</v>
       </c>
       <c r="L100">
-        <v>2.8032474000000001</v>
+        <v>187.6494404</v>
       </c>
       <c r="M100">
-        <v>2.9210905</v>
+        <v>155.68181759999999</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4564,37 +4564,37 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D101">
-        <v>0.25</v>
+        <v>3.4477364740522643E-3</v>
       </c>
       <c r="E101">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="F101">
-        <v>-0.125</v>
+        <v>8.4264175882596923E-2</v>
       </c>
       <c r="G101">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H101">
-        <v>0.375</v>
+        <v>7.8519229308703004E-2</v>
       </c>
       <c r="I101">
-        <v>0.3125</v>
+        <v>4.0983482891377633E-2</v>
       </c>
       <c r="J101">
-        <v>0.375</v>
+        <v>0.16481454218296321</v>
       </c>
       <c r="K101">
-        <v>2.6969053999999999</v>
+        <v>161.70056099999999</v>
       </c>
       <c r="L101">
-        <v>2.8056447000000002</v>
+        <v>178.8963972</v>
       </c>
       <c r="M101">
-        <v>2.8343782000000002</v>
+        <v>146.6932123</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4605,37 +4605,37 @@
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D102">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E102">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F102">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G102">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H102">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I102">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J102">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K102">
-        <v>2.7437079999999998</v>
+        <v>138.75807560000001</v>
       </c>
       <c r="L102">
-        <v>2.8298407000000001</v>
+        <v>146.42323999999999</v>
       </c>
       <c r="M102">
-        <v>2.9523381</v>
+        <v>148.21034760000001</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4646,37 +4646,37 @@
         <v>20</v>
       </c>
       <c r="C103">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D103">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E103">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F103">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G103">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H103">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I103">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J103">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K103">
-        <v>2.7580958</v>
+        <v>139.88007949999999</v>
       </c>
       <c r="L103">
-        <v>2.8525342</v>
+        <v>145.60993479999999</v>
       </c>
       <c r="M103">
-        <v>2.8366262</v>
+        <v>148.43297369999999</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4687,37 +4687,37 @@
         <v>20</v>
       </c>
       <c r="C104">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D104">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E104">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F104">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G104">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H104">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I104">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J104">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K104">
-        <v>2.6486021000000002</v>
+        <v>139.48453860000001</v>
       </c>
       <c r="L104">
-        <v>2.7590857</v>
+        <v>145.1295006</v>
       </c>
       <c r="M104">
-        <v>2.7736059000000002</v>
+        <v>148.91646280000001</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4728,37 +4728,37 @@
         <v>20</v>
       </c>
       <c r="C105">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D105">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E105">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F105">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G105">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H105">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I105">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J105">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K105">
-        <v>2.6084860000000001</v>
+        <v>139.1525719</v>
       </c>
       <c r="L105">
-        <v>2.7226175000000001</v>
+        <v>144.88225829999999</v>
       </c>
       <c r="M105">
-        <v>2.7632370000000002</v>
+        <v>149.8152719</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4769,37 +4769,37 @@
         <v>20</v>
       </c>
       <c r="C106">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D106">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E106">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F106">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G106">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H106">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I106">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J106">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K106">
-        <v>2.6327612</v>
+        <v>151.9038333</v>
       </c>
       <c r="L106">
-        <v>2.7414469000000001</v>
+        <v>176.957009</v>
       </c>
       <c r="M106">
-        <v>2.7552664999999998</v>
+        <v>164.76353779999999</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4810,37 +4810,37 @@
         <v>20</v>
       </c>
       <c r="C107">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D107">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E107">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F107">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G107">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H107">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I107">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J107">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K107">
-        <v>2.5999227</v>
+        <v>156.43721719999999</v>
       </c>
       <c r="L107">
-        <v>2.6875442999999999</v>
+        <v>167.22615020000001</v>
       </c>
       <c r="M107">
-        <v>2.7028411000000001</v>
+        <v>208.15235620000001</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4851,37 +4851,37 @@
         <v>20</v>
       </c>
       <c r="C108">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D108">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E108">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F108">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G108">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H108">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I108">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J108">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K108">
-        <v>2.5658367000000002</v>
+        <v>168.95399599999999</v>
       </c>
       <c r="L108">
-        <v>2.6527778</v>
+        <v>176.92783539999999</v>
       </c>
       <c r="M108">
-        <v>2.6708102</v>
+        <v>194.46530490000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4892,37 +4892,37 @@
         <v>20</v>
       </c>
       <c r="C109">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D109">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E109">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F109">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G109">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H109">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I109">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J109">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K109">
-        <v>2.5317869000000002</v>
+        <v>160.40014239999999</v>
       </c>
       <c r="L109">
-        <v>2.6689549000000001</v>
+        <v>195.78960050000001</v>
       </c>
       <c r="M109">
-        <v>2.6491226999999999</v>
+        <v>194.21276660000001</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4933,37 +4933,37 @@
         <v>20</v>
       </c>
       <c r="C110">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D110">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E110">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F110">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G110">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H110">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I110">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J110">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K110">
-        <v>2.5075547</v>
+        <v>170.11190690000001</v>
       </c>
       <c r="L110">
-        <v>2.6261945</v>
+        <v>162.311756</v>
       </c>
       <c r="M110">
-        <v>2.6751266999999999</v>
+        <v>169.88574650000001</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4974,37 +4974,37 @@
         <v>20</v>
       </c>
       <c r="C111">
-        <v>0.125</v>
+        <v>1.7543167358956842E-2</v>
       </c>
       <c r="D111">
-        <v>0.5</v>
+        <v>2.4675935175935183E-2</v>
       </c>
       <c r="E111">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="F111">
-        <v>0.125</v>
+        <v>0.117108232410864</v>
       </c>
       <c r="G111">
-        <v>0.375</v>
+        <v>0.13238199519778468</v>
       </c>
       <c r="H111">
-        <v>0.625</v>
+        <v>9.3974293250609048E-2</v>
       </c>
       <c r="I111">
-        <v>0.5625</v>
+        <v>5.9325114213272113E-2</v>
       </c>
       <c r="J111">
-        <v>0.375</v>
+        <v>0.21786250591513748</v>
       </c>
       <c r="K111">
-        <v>2.5251280999999999</v>
+        <v>143.83073820000001</v>
       </c>
       <c r="L111">
-        <v>2.6511247999999998</v>
+        <v>146.5878692</v>
       </c>
       <c r="M111">
-        <v>2.6656287000000001</v>
+        <v>147.6227069</v>
       </c>
     </row>
   </sheetData>

--- a/results/YOLOv4-coco/1/YOLOv4-coco_1.xlsx
+++ b/results/YOLOv4-coco/1/YOLOv4-coco_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebpobee\Documents\MATLAB\MR_Composition_OD\results\YOLOv4-coco\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF42BAAC-51A6-48C9-A6CD-ECA12AC7AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3B2CE-B2FA-4328-8594-6F809D56AAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2805" windowWidth="21600" windowHeight="11835" xr2:uid="{D170A0CD-E7EB-41D7-98B6-66E9769DFE98}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9468" xr2:uid="{3F276F17-FAE3-4E88-86C1-7E9D5F1B7C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,16 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC3491B-EA82-4E27-A3A6-8EF48421A3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192B4AB-D163-4DD1-A22E-FE5D30B9D719}">
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -505,40 +505,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E2">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F2">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G2">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H2">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I2">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K2">
-        <v>236.25653560000001</v>
+        <v>152.9538987</v>
       </c>
       <c r="L2">
-        <v>282.1808643</v>
+        <v>157.94362989999999</v>
       </c>
       <c r="M2">
-        <v>244.96284600000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165.73024580000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -546,40 +546,40 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E3">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G3">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H3">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I3">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K3">
-        <v>229.4437552</v>
+        <v>156.74129110000001</v>
       </c>
       <c r="L3">
-        <v>202.5568614</v>
+        <v>163.332402</v>
       </c>
       <c r="M3">
-        <v>237.41642580000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>193.6923151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -587,40 +587,40 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E4">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G4">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H4">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I4">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K4">
-        <v>282.63041809999999</v>
+        <v>177.97090489999999</v>
       </c>
       <c r="L4">
-        <v>290.78806079999998</v>
+        <v>175.49158550000001</v>
       </c>
       <c r="M4">
-        <v>252.90889440000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>197.26264359999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -628,40 +628,40 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E5">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G5">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H5">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I5">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J5">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K5">
-        <v>244.8351993</v>
+        <v>194.46473990000001</v>
       </c>
       <c r="L5">
-        <v>268.4347118</v>
+        <v>199.35328849999999</v>
       </c>
       <c r="M5">
-        <v>263.2511682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>204.9806605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -669,40 +669,40 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E6">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F6">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G6">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H6">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I6">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J6">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K6">
-        <v>254.52951759999999</v>
+        <v>202.07296260000001</v>
       </c>
       <c r="L6">
-        <v>250.28493979999999</v>
+        <v>215.5538531</v>
       </c>
       <c r="M6">
-        <v>242.02597259999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210.04912770000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -710,40 +710,40 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E7">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F7">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G7">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H7">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I7">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J7">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K7">
-        <v>261.36766590000002</v>
+        <v>201.88188439999999</v>
       </c>
       <c r="L7">
-        <v>252.99018799999999</v>
+        <v>192.42233100000001</v>
       </c>
       <c r="M7">
-        <v>244.7482301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>194.8420606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -751,40 +751,40 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E8">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G8">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H8">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I8">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J8">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K8">
-        <v>252.82007329999999</v>
+        <v>148.8819115</v>
       </c>
       <c r="L8">
-        <v>274.6149484</v>
+        <v>150.54165560000001</v>
       </c>
       <c r="M8">
-        <v>243.16884590000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155.8567176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -792,40 +792,40 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E9">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G9">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H9">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I9">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J9">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K9">
-        <v>238.38262219999999</v>
+        <v>168.9682909</v>
       </c>
       <c r="L9">
-        <v>238.7870461</v>
+        <v>225.56298269999999</v>
       </c>
       <c r="M9">
-        <v>243.3595033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>292.9131653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -833,40 +833,40 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E10">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F10">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G10">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H10">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I10">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J10">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K10">
-        <v>258.5005726</v>
+        <v>294.19249200000002</v>
       </c>
       <c r="L10">
-        <v>287.11663420000002</v>
+        <v>476.36436259999999</v>
       </c>
       <c r="M10">
-        <v>264.13834309999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>203.85641459999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -874,40 +874,40 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="E11">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.60272405372405369</v>
+        <v>0.78</v>
       </c>
       <c r="G11">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H11">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="I11">
-        <v>0.63238882462566681</v>
+        <v>0.8</v>
       </c>
       <c r="J11">
-        <v>0.63150518925518928</v>
+        <v>0.79</v>
       </c>
       <c r="K11">
-        <v>291.58774369999998</v>
+        <v>266.39449769999999</v>
       </c>
       <c r="L11">
-        <v>296.03353069999997</v>
+        <v>244.38264559999999</v>
       </c>
       <c r="M11">
-        <v>227.21429560000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>250.48859959999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -915,40 +915,40 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E12">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F12">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G12">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H12">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I12">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J12">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K12">
-        <v>297.88140779999998</v>
+        <v>266.11214919999998</v>
       </c>
       <c r="L12">
-        <v>303.87964540000002</v>
+        <v>270.69258180000003</v>
       </c>
       <c r="M12">
-        <v>250.99964360000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>269.50099260000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -956,40 +956,40 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E13">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F13">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G13">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H13">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I13">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J13">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K13">
-        <v>249.4957387</v>
+        <v>54207.168892399997</v>
       </c>
       <c r="L13">
-        <v>253.66968879999999</v>
+        <v>196.5393085</v>
       </c>
       <c r="M13">
-        <v>249.85870249999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>235.13169669999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -997,40 +997,40 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E14">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F14">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G14">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H14">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I14">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J14">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K14">
-        <v>256.29356300000001</v>
+        <v>186.97966940000001</v>
       </c>
       <c r="L14">
-        <v>252.41895210000001</v>
+        <v>188.8602089</v>
       </c>
       <c r="M14">
-        <v>212.85887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196.87294230000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1038,40 +1038,40 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E15">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F15">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G15">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H15">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I15">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J15">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K15">
-        <v>163.141199</v>
+        <v>212.72662339999999</v>
       </c>
       <c r="L15">
-        <v>171.3872083</v>
+        <v>265.3767957</v>
       </c>
       <c r="M15">
-        <v>177.14328159999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>225.64255069999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1079,40 +1079,40 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E16">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F16">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G16">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H16">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I16">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J16">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K16">
-        <v>183.6448341</v>
+        <v>205.945213</v>
       </c>
       <c r="L16">
-        <v>168.11564809999999</v>
+        <v>244.98856259999999</v>
       </c>
       <c r="M16">
-        <v>166.58947509999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210.67126909999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1120,40 +1120,40 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E17">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F17">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G17">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H17">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I17">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J17">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K17">
-        <v>143.42121650000001</v>
+        <v>201.02480739999999</v>
       </c>
       <c r="L17">
-        <v>143.6751122</v>
+        <v>203.6279892</v>
       </c>
       <c r="M17">
-        <v>143.74975370000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200.85572160000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1161,40 +1161,40 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E18">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F18">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G18">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H18">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I18">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J18">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K18">
-        <v>136.61096879999999</v>
+        <v>199.19544819999999</v>
       </c>
       <c r="L18">
-        <v>144.1588836</v>
+        <v>200.07261639999999</v>
       </c>
       <c r="M18">
-        <v>141.32473780000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>206.7928847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1202,40 +1202,40 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D19">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E19">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F19">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G19">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H19">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I19">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J19">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K19">
-        <v>136.8477982</v>
+        <v>238.00587680000001</v>
       </c>
       <c r="L19">
-        <v>140.73008039999999</v>
+        <v>224.16277299999999</v>
       </c>
       <c r="M19">
-        <v>137.11654569999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>289.94462060000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1243,40 +1243,40 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E20">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F20">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G20">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H20">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I20">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J20">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K20">
-        <v>143.78720029999999</v>
+        <v>257.42145210000001</v>
       </c>
       <c r="L20">
-        <v>151.47543110000001</v>
+        <v>261.71172319999999</v>
       </c>
       <c r="M20">
-        <v>155.07020030000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>253.30846410000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1284,40 +1284,40 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E21">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F21">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G21">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H21">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I21">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J21">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K21">
-        <v>148.56607489999999</v>
+        <v>259.47616470000003</v>
       </c>
       <c r="L21">
-        <v>160.81285829999999</v>
+        <v>276.95340299999998</v>
       </c>
       <c r="M21">
-        <v>161.99521820000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>264.25330580000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1325,40 +1325,40 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E22">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F22">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G22">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H22">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I22">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J22">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K22">
-        <v>166.77921660000001</v>
+        <v>286.83114879999999</v>
       </c>
       <c r="L22">
-        <v>200.86381019999999</v>
+        <v>233.87810150000001</v>
       </c>
       <c r="M22">
-        <v>191.25549989999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>214.91384400000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1366,40 +1366,40 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D23">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E23">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F23">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G23">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H23">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I23">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J23">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K23">
-        <v>174.10329369999999</v>
+        <v>214.25537130000001</v>
       </c>
       <c r="L23">
-        <v>191.91401210000001</v>
+        <v>246.74959100000001</v>
       </c>
       <c r="M23">
-        <v>189.26302559999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>226.30919320000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1407,40 +1407,40 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D24">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E24">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F24">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G24">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H24">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I24">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J24">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K24">
-        <v>198.59547850000001</v>
+        <v>232.69397570000001</v>
       </c>
       <c r="L24">
-        <v>196.59005049999999</v>
+        <v>190.1462698</v>
       </c>
       <c r="M24">
-        <v>167.44380219999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>242.43046720000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1448,40 +1448,40 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D25">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E25">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F25">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G25">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H25">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I25">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J25">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K25">
-        <v>168.67236869999999</v>
+        <v>369.47541560000002</v>
       </c>
       <c r="L25">
-        <v>160.45560330000001</v>
+        <v>261.2499239</v>
       </c>
       <c r="M25">
-        <v>166.1327728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>318.75249480000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1489,40 +1489,40 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E26">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F26">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G26">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H26">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I26">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J26">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K26">
-        <v>162.74537889999999</v>
+        <v>289.90691199999998</v>
       </c>
       <c r="L26">
-        <v>164.02313710000001</v>
+        <v>315.6785969</v>
       </c>
       <c r="M26">
-        <v>204.235557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>313.40284600000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1530,40 +1530,40 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E27">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F27">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G27">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H27">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I27">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J27">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K27">
-        <v>157.01778909999999</v>
+        <v>327.91358930000001</v>
       </c>
       <c r="L27">
-        <v>177.40648909999999</v>
+        <v>368.64081069999997</v>
       </c>
       <c r="M27">
-        <v>179.43335250000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>414.58538779999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1571,40 +1571,40 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D28">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E28">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F28">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G28">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H28">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I28">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J28">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K28">
-        <v>184.89684080000001</v>
+        <v>379.41899489999997</v>
       </c>
       <c r="L28">
-        <v>177.2273252</v>
+        <v>294.36639150000002</v>
       </c>
       <c r="M28">
-        <v>152.08311140000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>326.20556479999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1612,40 +1612,40 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E29">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F29">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G29">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H29">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I29">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J29">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K29">
-        <v>137.83600229999999</v>
+        <v>359.43867790000002</v>
       </c>
       <c r="L29">
-        <v>143.89694679999999</v>
+        <v>321.01918940000002</v>
       </c>
       <c r="M29">
-        <v>150.21379619999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>369.25704560000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1653,40 +1653,40 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E30">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F30">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G30">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H30">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I30">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J30">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K30">
-        <v>143.1254783</v>
+        <v>354.85367029999998</v>
       </c>
       <c r="L30">
-        <v>148.78627900000001</v>
+        <v>330.00904220000001</v>
       </c>
       <c r="M30">
-        <v>147.28171739999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>346.25122670000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1694,40 +1694,40 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D31">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E31">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F31">
-        <v>6.22816803079961E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G31">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H31">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I31">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J31">
-        <v>0.11500274579221946</v>
+        <v>0.37</v>
       </c>
       <c r="K31">
-        <v>149.84381740000001</v>
+        <v>346.66442790000002</v>
       </c>
       <c r="L31">
-        <v>145.6717768</v>
+        <v>250.4143511</v>
       </c>
       <c r="M31">
-        <v>150.46121650000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>257.52970599999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1735,40 +1735,40 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D32">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E32">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F32">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G32">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H32">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I32">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J32">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K32">
-        <v>149.94104089999999</v>
+        <v>258.81817519999998</v>
       </c>
       <c r="L32">
-        <v>166.9830163</v>
+        <v>283.18251559999999</v>
       </c>
       <c r="M32">
-        <v>176.21011530000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>280.93774989999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1776,40 +1776,40 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D33">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E33">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F33">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G33">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H33">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I33">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J33">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K33">
-        <v>186.1667793</v>
+        <v>255.93043800000001</v>
       </c>
       <c r="L33">
-        <v>173.09543170000001</v>
+        <v>278.55141709999998</v>
       </c>
       <c r="M33">
-        <v>176.90919529999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>278.00576430000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1817,40 +1817,40 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D34">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E34">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F34">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G34">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H34">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I34">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J34">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K34">
-        <v>161.42804290000001</v>
+        <v>259.04847530000001</v>
       </c>
       <c r="L34">
-        <v>172.82020919999999</v>
+        <v>279.00410879999998</v>
       </c>
       <c r="M34">
-        <v>160.51174080000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>282.00096889999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1858,40 +1858,40 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D35">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E35">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F35">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G35">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H35">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I35">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J35">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K35">
-        <v>145.24504429999999</v>
+        <v>254.74486949999999</v>
       </c>
       <c r="L35">
-        <v>152.59001330000001</v>
+        <v>274.4326547</v>
       </c>
       <c r="M35">
-        <v>154.17496149999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1097.9434461000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1899,40 +1899,40 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E36">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F36">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G36">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H36">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I36">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J36">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K36">
-        <v>152.30580810000001</v>
+        <v>215.99234139999999</v>
       </c>
       <c r="L36">
-        <v>159.95051849999999</v>
+        <v>311.87482849999998</v>
       </c>
       <c r="M36">
-        <v>173.10835019999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>286.42101009999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1940,40 +1940,40 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D37">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E37">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F37">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G37">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H37">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I37">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J37">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K37">
-        <v>248.41400419999999</v>
+        <v>264.70204100000001</v>
       </c>
       <c r="L37">
-        <v>267.40027140000001</v>
+        <v>287.25794539999998</v>
       </c>
       <c r="M37">
-        <v>273.68458629999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>292.53815980000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1981,40 +1981,40 @@
         <v>17</v>
       </c>
       <c r="C38">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D38">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E38">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F38">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G38">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H38">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I38">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J38">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K38">
-        <v>281.88276489999998</v>
+        <v>268.00411730000002</v>
       </c>
       <c r="L38">
-        <v>287.22475709999998</v>
+        <v>284.95714279999999</v>
       </c>
       <c r="M38">
-        <v>298.20775509999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>287.69282349999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2022,40 +2022,40 @@
         <v>17</v>
       </c>
       <c r="C39">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D39">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E39">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F39">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G39">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H39">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I39">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J39">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K39">
-        <v>259.07040610000001</v>
+        <v>273.07348330000002</v>
       </c>
       <c r="L39">
-        <v>278.09534059999999</v>
+        <v>306.76228839999999</v>
       </c>
       <c r="M39">
-        <v>272.99143420000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>306.6708233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2063,40 +2063,40 @@
         <v>17</v>
       </c>
       <c r="C40">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D40">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E40">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F40">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G40">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H40">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I40">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J40">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K40">
-        <v>275.19646619999997</v>
+        <v>282.27769979999999</v>
       </c>
       <c r="L40">
-        <v>425.50274059999998</v>
+        <v>309.7956868</v>
       </c>
       <c r="M40">
-        <v>392.55859659999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>309.14070270000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2104,40 +2104,40 @@
         <v>17</v>
       </c>
       <c r="C41">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E41">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F41">
-        <v>2.1501091014248911E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G41">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H41">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I41">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J41">
-        <v>0.11310579186894977</v>
+        <v>0.31</v>
       </c>
       <c r="K41">
-        <v>346.60331050000002</v>
+        <v>287.27671809999998</v>
       </c>
       <c r="L41">
-        <v>262.90102089999999</v>
+        <v>296.7923409</v>
       </c>
       <c r="M41">
-        <v>249.8673096</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>304.90444780000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2145,40 +2145,40 @@
         <v>18</v>
       </c>
       <c r="C42">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D42">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E42">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F42">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G42">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H42">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I42">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J42">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K42">
-        <v>175.88670759999999</v>
+        <v>299.67556680000001</v>
       </c>
       <c r="L42">
-        <v>153.7190401</v>
+        <v>310.46537810000001</v>
       </c>
       <c r="M42">
-        <v>152.4275476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>309.59997980000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2186,40 +2186,40 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D43">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E43">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F43">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G43">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H43">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I43">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J43">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K43">
-        <v>145.41003359999999</v>
+        <v>282.069706</v>
       </c>
       <c r="L43">
-        <v>152.1436047</v>
+        <v>303.39135299999998</v>
       </c>
       <c r="M43">
-        <v>151.68683669999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>294.64199050000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2227,40 +2227,40 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D44">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E44">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F44">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G44">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H44">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I44">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J44">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K44">
-        <v>145.15199609999999</v>
+        <v>260.5373922</v>
       </c>
       <c r="L44">
-        <v>152.98671920000001</v>
+        <v>351.68246540000001</v>
       </c>
       <c r="M44">
-        <v>153.5998055</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>309.84478080000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2268,40 +2268,40 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D45">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E45">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F45">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G45">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H45">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I45">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J45">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K45">
-        <v>145.32600500000001</v>
+        <v>295.69501270000001</v>
       </c>
       <c r="L45">
-        <v>150.9724386</v>
+        <v>336.67823299999998</v>
       </c>
       <c r="M45">
-        <v>151.11468500000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359.9979644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2309,40 +2309,40 @@
         <v>18</v>
       </c>
       <c r="C46">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D46">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E46">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F46">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G46">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H46">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I46">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J46">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K46">
-        <v>142.5000359</v>
+        <v>310.35234530000002</v>
       </c>
       <c r="L46">
-        <v>142.4723449</v>
+        <v>336.87564959999997</v>
       </c>
       <c r="M46">
-        <v>147.543747</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>344.72778729999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2350,40 +2350,40 @@
         <v>18</v>
       </c>
       <c r="C47">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D47">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E47">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F47">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G47">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H47">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I47">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J47">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K47">
-        <v>139.9833759</v>
+        <v>347.25957579999999</v>
       </c>
       <c r="L47">
-        <v>145.40618910000001</v>
+        <v>365.88146180000001</v>
       </c>
       <c r="M47">
-        <v>144.39814010000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>364.0930702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2391,40 +2391,40 @@
         <v>18</v>
       </c>
       <c r="C48">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D48">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E48">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F48">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G48">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H48">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I48">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J48">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K48">
-        <v>138.09493309999999</v>
+        <v>348.95621510000001</v>
       </c>
       <c r="L48">
-        <v>145.85844220000001</v>
+        <v>353.26621519999998</v>
       </c>
       <c r="M48">
-        <v>145.8167966</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>315.9620764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2432,40 +2432,40 @@
         <v>18</v>
       </c>
       <c r="C49">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D49">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E49">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F49">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G49">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H49">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I49">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J49">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K49">
-        <v>138.01934360000001</v>
+        <v>235.27673680000001</v>
       </c>
       <c r="L49">
-        <v>145.94926599999999</v>
+        <v>267.90461499999998</v>
       </c>
       <c r="M49">
-        <v>146.1923554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>257.9375096</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2473,40 +2473,40 @@
         <v>18</v>
       </c>
       <c r="C50">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D50">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E50">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F50">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G50">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H50">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I50">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J50">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K50">
-        <v>138.74218690000001</v>
+        <v>243.74931369999999</v>
       </c>
       <c r="L50">
-        <v>147.13533709999999</v>
+        <v>247.16108500000001</v>
       </c>
       <c r="M50">
-        <v>145.9520861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>274.70251300000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2514,40 +2514,40 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>-3.2053659790501898E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D51">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E51">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F51">
-        <v>1.2046146835620523E-2</v>
+        <v>0.39</v>
       </c>
       <c r="G51">
-        <v>4.8111175374333272E-2</v>
+        <v>0.22</v>
       </c>
       <c r="H51">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I51">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J51">
-        <v>8.841946795894165E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K51">
-        <v>137.53796009999999</v>
+        <v>310.60523339999997</v>
       </c>
       <c r="L51">
-        <v>145.37025059999999</v>
+        <v>372.74926499999998</v>
       </c>
       <c r="M51">
-        <v>143.51422360000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>403.75557570000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2555,40 +2555,40 @@
         <v>15</v>
       </c>
       <c r="C52">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D52">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E52">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F52">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G52">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H52">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I52">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J52">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K52">
-        <v>137.7208832</v>
+        <v>2124.6313620999999</v>
       </c>
       <c r="L52">
-        <v>134.71693250000001</v>
+        <v>189.40968889999999</v>
       </c>
       <c r="M52">
-        <v>136.30142470000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192.96597030000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2596,40 +2596,40 @@
         <v>15</v>
       </c>
       <c r="C53">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D53">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E53">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F53">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G53">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H53">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I53">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J53">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K53">
-        <v>135.70213939999999</v>
+        <v>195.08289819999999</v>
       </c>
       <c r="L53">
-        <v>135.88176100000001</v>
+        <v>199.77133689999999</v>
       </c>
       <c r="M53">
-        <v>135.55706029999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>201.6910197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2637,40 +2637,40 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D54">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E54">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F54">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G54">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H54">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I54">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J54">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K54">
-        <v>135.28147369999999</v>
+        <v>203.35194519999999</v>
       </c>
       <c r="L54">
-        <v>136.3135565</v>
+        <v>198.43654609999999</v>
       </c>
       <c r="M54">
-        <v>135.57745370000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>197.7455764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2678,40 +2678,40 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D55">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E55">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F55">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G55">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H55">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I55">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J55">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K55">
-        <v>135.9266303</v>
+        <v>201.71943289999999</v>
       </c>
       <c r="L55">
-        <v>135.537102</v>
+        <v>202.70491749999999</v>
       </c>
       <c r="M55">
-        <v>136.26258469999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>206.87297659999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2719,40 +2719,40 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D56">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E56">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F56">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G56">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H56">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I56">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J56">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K56">
-        <v>136.8965432</v>
+        <v>177.1317267</v>
       </c>
       <c r="L56">
-        <v>136.73106559999999</v>
+        <v>178.2718074</v>
       </c>
       <c r="M56">
-        <v>137.80842730000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179.2679564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2760,40 +2760,40 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D57">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E57">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F57">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G57">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H57">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I57">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J57">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K57">
-        <v>135.82989309999999</v>
+        <v>178.8110168</v>
       </c>
       <c r="L57">
-        <v>136.9359743</v>
+        <v>179.4232863</v>
       </c>
       <c r="M57">
-        <v>137.9672018</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>180.05737590000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2801,40 +2801,40 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D58">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E58">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F58">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G58">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H58">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I58">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J58">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K58">
-        <v>138.41019510000001</v>
+        <v>177.19308380000001</v>
       </c>
       <c r="L58">
-        <v>138.5441888</v>
+        <v>272.98084740000002</v>
       </c>
       <c r="M58">
-        <v>137.74492269999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.49952469999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2842,40 +2842,40 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D59">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E59">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F59">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G59">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H59">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I59">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J59">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K59">
-        <v>139.4370547</v>
+        <v>116.0691649</v>
       </c>
       <c r="L59">
-        <v>139.5325569</v>
+        <v>115.7825486</v>
       </c>
       <c r="M59">
-        <v>136.52017789999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>116.33620190000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2883,40 +2883,40 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D60">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E60">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F60">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G60">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H60">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I60">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J60">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K60">
-        <v>140.30334149999999</v>
+        <v>115.74786330000001</v>
       </c>
       <c r="L60">
-        <v>139.07229530000001</v>
+        <v>116.3841042</v>
       </c>
       <c r="M60">
-        <v>135.32838889999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.60869409999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2924,40 +2924,40 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D61">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E61">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F61">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G61">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H61">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I61">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J61">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K61">
-        <v>136.26955129999999</v>
+        <v>115.5945076</v>
       </c>
       <c r="L61">
-        <v>138.73841959999999</v>
+        <v>115.4624386</v>
       </c>
       <c r="M61">
-        <v>139.52910650000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.504136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2965,40 +2965,40 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D62">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E62">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F62">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G62">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H62">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I62">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J62">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K62">
-        <v>137.76250880000001</v>
+        <v>115.88938469999999</v>
       </c>
       <c r="L62">
-        <v>137.6250503</v>
+        <v>116.40156899999999</v>
       </c>
       <c r="M62">
-        <v>136.25910239999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.5564239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3006,40 +3006,40 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D63">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E63">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F63">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G63">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H63">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I63">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J63">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K63">
-        <v>133.8455372</v>
+        <v>115.5910234</v>
       </c>
       <c r="L63">
-        <v>135.45082740000001</v>
+        <v>115.69190930000001</v>
       </c>
       <c r="M63">
-        <v>136.61522260000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.5638338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3047,40 +3047,40 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D64">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E64">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F64">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G64">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H64">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I64">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J64">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K64">
-        <v>137.17422809999999</v>
+        <v>115.7486509</v>
       </c>
       <c r="L64">
-        <v>137.1319215</v>
+        <v>115.7743232</v>
       </c>
       <c r="M64">
-        <v>138.821889</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.85995389999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3088,40 +3088,40 @@
         <v>16</v>
       </c>
       <c r="C65">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D65">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E65">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F65">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G65">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H65">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I65">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J65">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K65">
-        <v>136.1479387</v>
+        <v>115.7286726</v>
       </c>
       <c r="L65">
-        <v>135.7634817</v>
+        <v>115.83066100000001</v>
       </c>
       <c r="M65">
-        <v>137.03563500000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.85949549999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3129,40 +3129,40 @@
         <v>16</v>
       </c>
       <c r="C66">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D66">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E66">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F66">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G66">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H66">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I66">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J66">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K66">
-        <v>136.9085589</v>
+        <v>115.8104767</v>
       </c>
       <c r="L66">
-        <v>136.70600719999999</v>
+        <v>116.7991562</v>
       </c>
       <c r="M66">
-        <v>135.84061030000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.8319352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3170,40 +3170,40 @@
         <v>16</v>
       </c>
       <c r="C67">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D67">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E67">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F67">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G67">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H67">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I67">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J67">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K67">
-        <v>135.74651109999999</v>
+        <v>115.79705269999999</v>
       </c>
       <c r="L67">
-        <v>135.75098009999999</v>
+        <v>115.5112498</v>
       </c>
       <c r="M67">
-        <v>136.5896631</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.6463059</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3211,40 +3211,40 @@
         <v>16</v>
       </c>
       <c r="C68">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D68">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E68">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F68">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G68">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H68">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I68">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J68">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K68">
-        <v>136.54972169999999</v>
+        <v>115.4409311</v>
       </c>
       <c r="L68">
-        <v>137.38262779999999</v>
+        <v>115.4706877</v>
       </c>
       <c r="M68">
-        <v>137.996476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>116.01241539999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3252,40 +3252,40 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D69">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E69">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F69">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G69">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H69">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I69">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J69">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K69">
-        <v>134.68760979999999</v>
+        <v>115.6093127</v>
       </c>
       <c r="L69">
-        <v>136.69124669999999</v>
+        <v>115.8722022</v>
       </c>
       <c r="M69">
-        <v>136.93171150000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>116.7958587</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3293,40 +3293,40 @@
         <v>16</v>
       </c>
       <c r="C70">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D70">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E70">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F70">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G70">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H70">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I70">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J70">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K70">
-        <v>137.3024101</v>
+        <v>115.73378719999999</v>
       </c>
       <c r="L70">
-        <v>138.0607608</v>
+        <v>116.0729674</v>
       </c>
       <c r="M70">
-        <v>138.0133945</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115.8460012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3334,40 +3334,40 @@
         <v>16</v>
       </c>
       <c r="C71">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D71">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E71">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F71">
-        <v>0.63927606749975174</v>
+        <v>0.83</v>
       </c>
       <c r="G71">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H71">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="I71">
-        <v>7.4962581278370757E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J71">
-        <v>0.67311197136197132</v>
+        <v>0.84</v>
       </c>
       <c r="K71">
-        <v>136.41016200000001</v>
+        <v>115.44950609999999</v>
       </c>
       <c r="L71">
-        <v>136.8167411</v>
+        <v>116.67390760000001</v>
       </c>
       <c r="M71">
-        <v>136.54254979999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>116.2798164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3375,40 +3375,40 @@
         <v>17</v>
       </c>
       <c r="C72">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D72">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E72">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F72">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G72">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H72">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I72">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J72">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K72">
-        <v>137.0559676</v>
+        <v>115.5008096</v>
       </c>
       <c r="L72">
-        <v>143.65868929999999</v>
+        <v>120.9912073</v>
       </c>
       <c r="M72">
-        <v>144.1652618</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.45260519999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3416,40 +3416,40 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D73">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E73">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F73">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G73">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H73">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I73">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J73">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K73">
-        <v>136.01336749999999</v>
+        <v>115.5457126</v>
       </c>
       <c r="L73">
-        <v>143.67153400000001</v>
+        <v>120.7105873</v>
       </c>
       <c r="M73">
-        <v>142.9288311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.4323405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3457,40 +3457,40 @@
         <v>17</v>
       </c>
       <c r="C74">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D74">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E74">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F74">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G74">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H74">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I74">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J74">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K74">
-        <v>136.129839</v>
+        <v>115.674519</v>
       </c>
       <c r="L74">
-        <v>144.5049167</v>
+        <v>120.3457441</v>
       </c>
       <c r="M74">
-        <v>144.38011460000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.1587986</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3498,40 +3498,40 @@
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D75">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E75">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F75">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G75">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H75">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I75">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J75">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K75">
-        <v>136.19956289999999</v>
+        <v>115.8384772</v>
       </c>
       <c r="L75">
-        <v>142.52734040000001</v>
+        <v>120.7396348</v>
       </c>
       <c r="M75">
-        <v>144.69092929999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.2478053</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -3539,40 +3539,40 @@
         <v>17</v>
       </c>
       <c r="C76">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D76">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E76">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F76">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G76">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H76">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I76">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J76">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K76">
-        <v>137.34713590000001</v>
+        <v>114.96189270000001</v>
       </c>
       <c r="L76">
-        <v>143.65241710000001</v>
+        <v>120.2584289</v>
       </c>
       <c r="M76">
-        <v>143.43994810000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119.95625130000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -3580,40 +3580,40 @@
         <v>17</v>
       </c>
       <c r="C77">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D77">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E77">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F77">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G77">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H77">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I77">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J77">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K77">
-        <v>136.48396600000001</v>
+        <v>114.99349580000001</v>
       </c>
       <c r="L77">
-        <v>143.1617407</v>
+        <v>120.1422221</v>
       </c>
       <c r="M77">
-        <v>142.7664623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119.9599065</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -3621,40 +3621,40 @@
         <v>17</v>
       </c>
       <c r="C78">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D78">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E78">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F78">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G78">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H78">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I78">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J78">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K78">
-        <v>137.0869108</v>
+        <v>115.0017618</v>
       </c>
       <c r="L78">
-        <v>142.91312619999999</v>
+        <v>120.09768939999999</v>
       </c>
       <c r="M78">
-        <v>143.94860130000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119.9863533</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3662,40 +3662,40 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D79">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E79">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F79">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G79">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H79">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I79">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J79">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K79">
-        <v>155.20476489999999</v>
+        <v>115.0761558</v>
       </c>
       <c r="L79">
-        <v>151.83900460000001</v>
+        <v>120.1847473</v>
       </c>
       <c r="M79">
-        <v>141.3838725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.4317392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3703,40 +3703,40 @@
         <v>17</v>
       </c>
       <c r="C80">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D80">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E80">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F80">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G80">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H80">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I80">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J80">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K80">
-        <v>136.94766630000001</v>
+        <v>116.3785079</v>
       </c>
       <c r="L80">
-        <v>168.219392</v>
+        <v>120.78154480000001</v>
       </c>
       <c r="M80">
-        <v>174.5540756</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.55123930000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3744,40 +3744,40 @@
         <v>17</v>
       </c>
       <c r="C81">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D81">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E81">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F81">
-        <v>0.60865951738320145</v>
+        <v>0.81</v>
       </c>
       <c r="G81">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H81">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I81">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J81">
-        <v>0.6566662328899171</v>
+        <v>0.82</v>
       </c>
       <c r="K81">
-        <v>471.54098099999999</v>
+        <v>115.3366377</v>
       </c>
       <c r="L81">
-        <v>367.96466900000001</v>
+        <v>120.2344331</v>
       </c>
       <c r="M81">
-        <v>381.97477720000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.4358543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3785,40 +3785,40 @@
         <v>18</v>
       </c>
       <c r="C82">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D82">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E82">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F82">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G82">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H82">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I82">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J82">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K82">
-        <v>346.3910917</v>
+        <v>115.500118</v>
       </c>
       <c r="L82">
-        <v>35677.002232300001</v>
+        <v>120.2983792</v>
       </c>
       <c r="M82">
-        <v>192.4780748</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.8809105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -3826,40 +3826,40 @@
         <v>18</v>
       </c>
       <c r="C83">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D83">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E83">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F83">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G83">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H83">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I83">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J83">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K83">
-        <v>212.84732729999999</v>
+        <v>115.5134194</v>
       </c>
       <c r="L83">
-        <v>198.76790829999999</v>
+        <v>120.4932957</v>
       </c>
       <c r="M83">
-        <v>197.09497630000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.32194749999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3867,40 +3867,40 @@
         <v>18</v>
       </c>
       <c r="C84">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D84">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E84">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F84">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G84">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H84">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I84">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J84">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K84">
-        <v>152.5836577</v>
+        <v>115.6773048</v>
       </c>
       <c r="L84">
-        <v>171.9129178</v>
+        <v>120.2819059</v>
       </c>
       <c r="M84">
-        <v>154.81494090000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.0267666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3908,40 +3908,40 @@
         <v>18</v>
       </c>
       <c r="C85">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D85">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E85">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F85">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G85">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H85">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I85">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J85">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K85">
-        <v>153.65250700000001</v>
+        <v>115.4098774</v>
       </c>
       <c r="L85">
-        <v>159.15365869999999</v>
+        <v>120.1554612</v>
       </c>
       <c r="M85">
-        <v>195.32433209999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.13845310000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -3949,40 +3949,40 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D86">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E86">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F86">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G86">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H86">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I86">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J86">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K86">
-        <v>175.18321399999999</v>
+        <v>115.21205550000001</v>
       </c>
       <c r="L86">
-        <v>174.16289739999999</v>
+        <v>119.99544469999999</v>
       </c>
       <c r="M86">
-        <v>156.153111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.251372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -3990,40 +3990,40 @@
         <v>18</v>
       </c>
       <c r="C87">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D87">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E87">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F87">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G87">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H87">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I87">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J87">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K87">
-        <v>177.15779910000001</v>
+        <v>115.28250559999999</v>
       </c>
       <c r="L87">
-        <v>152.82238749999999</v>
+        <v>119.97684219999999</v>
       </c>
       <c r="M87">
-        <v>154.63240690000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.3620097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -4031,40 +4031,40 @@
         <v>18</v>
       </c>
       <c r="C88">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D88">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E88">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F88">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G88">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H88">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I88">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J88">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K88">
-        <v>163.17998030000001</v>
+        <v>115.16329450000001</v>
       </c>
       <c r="L88">
-        <v>176.03850370000001</v>
+        <v>120.2418375</v>
       </c>
       <c r="M88">
-        <v>176.73493149999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.1645274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4072,40 +4072,40 @@
         <v>18</v>
       </c>
       <c r="C89">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D89">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E89">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F89">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G89">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H89">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I89">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J89">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K89">
-        <v>184.0102047</v>
+        <v>115.1971635</v>
       </c>
       <c r="L89">
-        <v>193.5187651</v>
+        <v>120.1863658</v>
       </c>
       <c r="M89">
-        <v>191.01858229999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.03747660000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4113,40 +4113,40 @@
         <v>18</v>
       </c>
       <c r="C90">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D90">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E90">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F90">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G90">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H90">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I90">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J90">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K90">
-        <v>166.20950690000001</v>
+        <v>115.5916278</v>
       </c>
       <c r="L90">
-        <v>159.71507869999999</v>
+        <v>120.2343731</v>
       </c>
       <c r="M90">
-        <v>162.6229161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.7258557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -4154,40 +4154,40 @@
         <v>18</v>
       </c>
       <c r="C91">
-        <v>0.61975536597905023</v>
+        <v>0.81</v>
       </c>
       <c r="D91">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E91">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F91">
-        <v>0.61548851294903928</v>
+        <v>0.84</v>
       </c>
       <c r="G91">
-        <v>0.64502228327228339</v>
+        <v>0.79</v>
       </c>
       <c r="H91">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I91">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J91">
-        <v>0.69485653235653233</v>
+        <v>0.85</v>
       </c>
       <c r="K91">
-        <v>149.37689030000001</v>
+        <v>115.30260319999999</v>
       </c>
       <c r="L91">
-        <v>155.0831317</v>
+        <v>120.4292619</v>
       </c>
       <c r="M91">
-        <v>158.0139346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.5024544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4195,40 +4195,40 @@
         <v>19</v>
       </c>
       <c r="C92">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D92">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E92">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F92">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G92">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H92">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I92">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J92">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K92">
-        <v>150.0761296</v>
+        <v>115.46204760000001</v>
       </c>
       <c r="L92">
-        <v>157.20754199999999</v>
+        <v>119.95606890000001</v>
       </c>
       <c r="M92">
-        <v>190.19354569999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.3094095</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -4236,40 +4236,40 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D93">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E93">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F93">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G93">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H93">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I93">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J93">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K93">
-        <v>179.28945189999999</v>
+        <v>116.1437543</v>
       </c>
       <c r="L93">
-        <v>189.8686429</v>
+        <v>129.0787985</v>
       </c>
       <c r="M93">
-        <v>192.00826029999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136.4008173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4277,40 +4277,40 @@
         <v>19</v>
       </c>
       <c r="C94">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D94">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E94">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F94">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G94">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H94">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I94">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J94">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K94">
-        <v>190.6360286</v>
+        <v>114.1017784</v>
       </c>
       <c r="L94">
-        <v>173.3518152</v>
+        <v>119.8792268</v>
       </c>
       <c r="M94">
-        <v>156.39154679999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120.97458930000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4318,40 +4318,40 @@
         <v>19</v>
       </c>
       <c r="C95">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D95">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E95">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F95">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G95">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H95">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I95">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J95">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K95">
-        <v>150.92112109999999</v>
+        <v>115.3832341</v>
       </c>
       <c r="L95">
-        <v>157.15707159999999</v>
+        <v>120.34264930000001</v>
       </c>
       <c r="M95">
-        <v>160.10335420000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.5671895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4359,40 +4359,40 @@
         <v>19</v>
       </c>
       <c r="C96">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D96">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E96">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F96">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G96">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H96">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I96">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J96">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K96">
-        <v>153.39915139999999</v>
+        <v>115.79580420000001</v>
       </c>
       <c r="L96">
-        <v>161.6747699</v>
+        <v>120.296412</v>
       </c>
       <c r="M96">
-        <v>159.53492840000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.60116650000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4400,40 +4400,40 @@
         <v>19</v>
       </c>
       <c r="C97">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D97">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E97">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F97">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G97">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H97">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I97">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J97">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K97">
-        <v>150.8424899</v>
+        <v>115.75836219999999</v>
       </c>
       <c r="L97">
-        <v>160.571226</v>
+        <v>125.06695259999999</v>
       </c>
       <c r="M97">
-        <v>162.74919</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>137.14917070000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -4441,40 +4441,40 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D98">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E98">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F98">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G98">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H98">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I98">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J98">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K98">
-        <v>153.70862489999999</v>
+        <v>120.1030653</v>
       </c>
       <c r="L98">
-        <v>162.34627900000001</v>
+        <v>119.8869883</v>
       </c>
       <c r="M98">
-        <v>160.94832769999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.31748690000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4482,40 +4482,40 @@
         <v>19</v>
       </c>
       <c r="C99">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D99">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E99">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F99">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G99">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H99">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I99">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J99">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K99">
-        <v>154.6069033</v>
+        <v>115.5869294</v>
       </c>
       <c r="L99">
-        <v>162.86172690000001</v>
+        <v>120.89341090000001</v>
       </c>
       <c r="M99">
-        <v>162.47635639999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.8613275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4523,40 +4523,40 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D100">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E100">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F100">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G100">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H100">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I100">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J100">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K100">
-        <v>163.75728960000001</v>
+        <v>116.2898696</v>
       </c>
       <c r="L100">
-        <v>187.6494404</v>
+        <v>120.79053450000001</v>
       </c>
       <c r="M100">
-        <v>155.68181759999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.79486869999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -4564,40 +4564,40 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D101">
-        <v>3.4477364740522643E-3</v>
+        <v>0.42</v>
       </c>
       <c r="E101">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="F101">
-        <v>8.4264175882596923E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G101">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H101">
-        <v>7.8519229308703004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I101">
-        <v>4.0983482891377633E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J101">
-        <v>0.16481454218296321</v>
+        <v>0.45</v>
       </c>
       <c r="K101">
-        <v>161.70056099999999</v>
+        <v>116.1416524</v>
       </c>
       <c r="L101">
-        <v>178.8963972</v>
+        <v>120.97890169999999</v>
       </c>
       <c r="M101">
-        <v>146.6932123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.9027644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -4605,40 +4605,40 @@
         <v>20</v>
       </c>
       <c r="C102">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D102">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E102">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F102">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G102">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H102">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I102">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J102">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K102">
-        <v>138.75807560000001</v>
+        <v>116.2353955</v>
       </c>
       <c r="L102">
-        <v>146.42323999999999</v>
+        <v>121.0375481</v>
       </c>
       <c r="M102">
-        <v>148.21034760000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122.0016748</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4646,40 +4646,40 @@
         <v>20</v>
       </c>
       <c r="C103">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D103">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E103">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F103">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G103">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H103">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I103">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J103">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K103">
-        <v>139.88007949999999</v>
+        <v>116.4515873</v>
       </c>
       <c r="L103">
-        <v>145.60993479999999</v>
+        <v>121.6809914</v>
       </c>
       <c r="M103">
-        <v>148.43297369999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.72319950000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4687,40 +4687,40 @@
         <v>20</v>
       </c>
       <c r="C104">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D104">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E104">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F104">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G104">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H104">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I104">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J104">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K104">
-        <v>139.48453860000001</v>
+        <v>114.1703483</v>
       </c>
       <c r="L104">
-        <v>145.1295006</v>
+        <v>118.9434528</v>
       </c>
       <c r="M104">
-        <v>148.91646280000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119.8427136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -4728,40 +4728,40 @@
         <v>20</v>
       </c>
       <c r="C105">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D105">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E105">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F105">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G105">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H105">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I105">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J105">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K105">
-        <v>139.1525719</v>
+        <v>114.15757499999999</v>
       </c>
       <c r="L105">
-        <v>144.88225829999999</v>
+        <v>119.60709660000001</v>
       </c>
       <c r="M105">
-        <v>149.8152719</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.72605160000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -4769,40 +4769,40 @@
         <v>20</v>
       </c>
       <c r="C106">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D106">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E106">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F106">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G106">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H106">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I106">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J106">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K106">
-        <v>151.9038333</v>
+        <v>115.85889090000001</v>
       </c>
       <c r="L106">
-        <v>176.957009</v>
+        <v>121.0000278</v>
       </c>
       <c r="M106">
-        <v>164.76353779999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122.2888471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -4810,40 +4810,40 @@
         <v>20</v>
       </c>
       <c r="C107">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D107">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E107">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F107">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G107">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H107">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I107">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J107">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K107">
-        <v>156.43721719999999</v>
+        <v>116.33652309999999</v>
       </c>
       <c r="L107">
-        <v>167.22615020000001</v>
+        <v>120.81451749999999</v>
       </c>
       <c r="M107">
-        <v>208.15235620000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.893766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -4851,40 +4851,40 @@
         <v>20</v>
       </c>
       <c r="C108">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D108">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E108">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F108">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G108">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H108">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I108">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J108">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K108">
-        <v>168.95399599999999</v>
+        <v>115.8890069</v>
       </c>
       <c r="L108">
-        <v>176.92783539999999</v>
+        <v>120.9078117</v>
       </c>
       <c r="M108">
-        <v>194.46530490000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122.4737372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -4892,40 +4892,40 @@
         <v>20</v>
       </c>
       <c r="C109">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D109">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E109">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F109">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G109">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H109">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I109">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J109">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K109">
-        <v>160.40014239999999</v>
+        <v>116.09844320000001</v>
       </c>
       <c r="L109">
-        <v>195.78960050000001</v>
+        <v>120.96285</v>
       </c>
       <c r="M109">
-        <v>194.21276660000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122.2782425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -4933,40 +4933,40 @@
         <v>20</v>
       </c>
       <c r="C110">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D110">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E110">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F110">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G110">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H110">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I110">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J110">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K110">
-        <v>170.11190690000001</v>
+        <v>116.0352903</v>
       </c>
       <c r="L110">
-        <v>162.311756</v>
+        <v>120.6573107</v>
       </c>
       <c r="M110">
-        <v>169.88574650000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>121.88106569999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -4974,37 +4974,37 @@
         <v>20</v>
       </c>
       <c r="C111">
-        <v>1.7543167358956842E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D111">
-        <v>2.4675935175935183E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E111">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F111">
-        <v>0.117108232410864</v>
+        <v>0.54</v>
       </c>
       <c r="G111">
-        <v>0.13238199519778468</v>
+        <v>0.38</v>
       </c>
       <c r="H111">
-        <v>9.3974293250609048E-2</v>
+        <v>0.31</v>
       </c>
       <c r="I111">
-        <v>5.9325114213272113E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J111">
-        <v>0.21786250591513748</v>
+        <v>0.54</v>
       </c>
       <c r="K111">
-        <v>143.83073820000001</v>
+        <v>116.24714040000001</v>
       </c>
       <c r="L111">
-        <v>146.5878692</v>
+        <v>120.84899129999999</v>
       </c>
       <c r="M111">
-        <v>147.6227069</v>
+        <v>121.8385893</v>
       </c>
     </row>
   </sheetData>

--- a/results/YOLOv4-coco/1/YOLOv4-coco_1.xlsx
+++ b/results/YOLOv4-coco/1/YOLOv4-coco_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebpobee\Documents\MATLAB\MR_Composition_OD\results\YOLOv4-coco\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3B2CE-B2FA-4328-8594-6F809D56AAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02E6CF-60B9-41DB-B370-D93105EF440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9468" xr2:uid="{3F276F17-FAE3-4E88-86C1-7E9D5F1B7C78}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9468" xr2:uid="{9C05777B-890B-4B0D-BEE6-034D7E961D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="22">
   <si>
     <t>MR1</t>
   </si>
@@ -45,22 +45,22 @@
     <t>objfailureRateMR1</t>
   </si>
   <si>
-    <t>classfailureRateMR1</t>
+    <t>objfailureRateMR2</t>
   </si>
   <si>
-    <t>objfailureRateMR2</t>
+    <t>objfailureRateMR1_MR2_combined</t>
+  </si>
+  <si>
+    <t>objfailureRateMR1_2_composite</t>
+  </si>
+  <si>
+    <t>classfailureRateMR1</t>
   </si>
   <si>
     <t>classfailureRateMR2</t>
   </si>
   <si>
-    <t>objfailureRateMR1_MR2_combined</t>
-  </si>
-  <si>
     <t>classfailureRateMR1_MR2_combined</t>
-  </si>
-  <si>
-    <t>objfailureRateMR1_2_composite</t>
   </si>
   <si>
     <t>classfailureRateMR1_2_composite</t>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>timeMR2</t>
+  </si>
+  <si>
+    <t>timeMR12</t>
   </si>
   <si>
     <t>timeMR12_composite</t>
@@ -447,16 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192B4AB-D163-4DD1-A22E-FE5D30B9D719}">
-  <dimension ref="A1:M111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE0D89-1A25-4304-B5C4-DAAB69783014}">
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M111"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,13 +499,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -511,7 +517,7 @@
         <v>0.81</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F2">
         <v>0.78</v>
@@ -523,27 +529,30 @@
         <v>0.79</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J2">
         <v>0.79</v>
       </c>
       <c r="K2">
-        <v>152.9538987</v>
+        <v>119.50826669999999</v>
       </c>
       <c r="L2">
-        <v>157.94362989999999</v>
+        <v>123.35988879999999</v>
       </c>
       <c r="M2">
-        <v>165.73024580000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>242.8681555</v>
+      </c>
+      <c r="N2">
+        <v>122.24855719999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0.3</v>
@@ -552,7 +561,7 @@
         <v>0.81</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F3">
         <v>0.78</v>
@@ -564,27 +573,30 @@
         <v>0.79</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J3">
         <v>0.79</v>
       </c>
       <c r="K3">
-        <v>156.74129110000001</v>
+        <v>127.5193034</v>
       </c>
       <c r="L3">
-        <v>163.332402</v>
+        <v>126.7805674</v>
       </c>
       <c r="M3">
-        <v>193.6923151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254.29987080000001</v>
+      </c>
+      <c r="N3">
+        <v>132.5527835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -593,7 +605,7 @@
         <v>0.81</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F4">
         <v>0.78</v>
@@ -605,27 +617,30 @@
         <v>0.79</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J4">
         <v>0.79</v>
       </c>
       <c r="K4">
-        <v>177.97090489999999</v>
+        <v>128.919769</v>
       </c>
       <c r="L4">
-        <v>175.49158550000001</v>
+        <v>130.44898929999999</v>
       </c>
       <c r="M4">
-        <v>197.26264359999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>259.36875829999997</v>
+      </c>
+      <c r="N4">
+        <v>131.38055159999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0.3</v>
@@ -634,7 +649,7 @@
         <v>0.81</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F5">
         <v>0.78</v>
@@ -646,27 +661,30 @@
         <v>0.79</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J5">
         <v>0.79</v>
       </c>
       <c r="K5">
-        <v>194.46473990000001</v>
+        <v>131.98246449999999</v>
       </c>
       <c r="L5">
-        <v>199.35328849999999</v>
+        <v>137.6767882</v>
       </c>
       <c r="M5">
-        <v>204.9806605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>269.65925270000002</v>
+      </c>
+      <c r="N5">
+        <v>141.1634425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0.3</v>
@@ -675,7 +693,7 @@
         <v>0.81</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F6">
         <v>0.78</v>
@@ -687,27 +705,30 @@
         <v>0.79</v>
       </c>
       <c r="I6">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J6">
         <v>0.79</v>
       </c>
       <c r="K6">
-        <v>202.07296260000001</v>
+        <v>132.15464929999999</v>
       </c>
       <c r="L6">
-        <v>215.5538531</v>
+        <v>132.2512313</v>
       </c>
       <c r="M6">
-        <v>210.04912770000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>264.40588059999999</v>
+      </c>
+      <c r="N6">
+        <v>133.71019910000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0.3</v>
@@ -716,7 +737,7 @@
         <v>0.81</v>
       </c>
       <c r="E7">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F7">
         <v>0.78</v>
@@ -728,27 +749,30 @@
         <v>0.79</v>
       </c>
       <c r="I7">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J7">
         <v>0.79</v>
       </c>
       <c r="K7">
-        <v>201.88188439999999</v>
+        <v>149.8040833</v>
       </c>
       <c r="L7">
-        <v>192.42233100000001</v>
+        <v>151.71636190000001</v>
       </c>
       <c r="M7">
-        <v>194.8420606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>301.52044520000004</v>
+      </c>
+      <c r="N7">
+        <v>135.6970819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -757,7 +781,7 @@
         <v>0.81</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F8">
         <v>0.78</v>
@@ -769,27 +793,30 @@
         <v>0.79</v>
       </c>
       <c r="I8">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J8">
         <v>0.79</v>
       </c>
       <c r="K8">
-        <v>148.8819115</v>
+        <v>140.03029960000001</v>
       </c>
       <c r="L8">
-        <v>150.54165560000001</v>
+        <v>133.20893269999999</v>
       </c>
       <c r="M8">
-        <v>155.8567176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>273.23923230000003</v>
+      </c>
+      <c r="N8">
+        <v>131.61558909999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.3</v>
@@ -798,7 +825,7 @@
         <v>0.81</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F9">
         <v>0.78</v>
@@ -810,27 +837,30 @@
         <v>0.79</v>
       </c>
       <c r="I9">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J9">
         <v>0.79</v>
       </c>
       <c r="K9">
-        <v>168.9682909</v>
+        <v>134.06771319999999</v>
       </c>
       <c r="L9">
-        <v>225.56298269999999</v>
+        <v>132.98403640000001</v>
       </c>
       <c r="M9">
-        <v>292.9131653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>267.05174959999999</v>
+      </c>
+      <c r="N9">
+        <v>132.83363700000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -839,7 +869,7 @@
         <v>0.81</v>
       </c>
       <c r="E10">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F10">
         <v>0.78</v>
@@ -851,27 +881,30 @@
         <v>0.79</v>
       </c>
       <c r="I10">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J10">
         <v>0.79</v>
       </c>
       <c r="K10">
-        <v>294.19249200000002</v>
+        <v>134.40928500000001</v>
       </c>
       <c r="L10">
-        <v>476.36436259999999</v>
+        <v>136.2736673</v>
       </c>
       <c r="M10">
-        <v>203.85641459999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>270.68295230000001</v>
+      </c>
+      <c r="N10">
+        <v>131.8206825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -880,7 +913,7 @@
         <v>0.81</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F11">
         <v>0.78</v>
@@ -892,27 +925,30 @@
         <v>0.79</v>
       </c>
       <c r="I11">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J11">
         <v>0.79</v>
       </c>
       <c r="K11">
-        <v>266.39449769999999</v>
+        <v>135.56838429999999</v>
       </c>
       <c r="L11">
-        <v>244.38264559999999</v>
+        <v>149.66275440000001</v>
       </c>
       <c r="M11">
-        <v>250.48859959999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>285.23113869999997</v>
+      </c>
+      <c r="N11">
+        <v>159.38939769999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0.3</v>
@@ -921,7 +957,7 @@
         <v>0.47</v>
       </c>
       <c r="E12">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F12">
         <v>0.39</v>
@@ -933,27 +969,30 @@
         <v>0.38</v>
       </c>
       <c r="I12">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J12">
         <v>0.37</v>
       </c>
       <c r="K12">
-        <v>266.11214919999998</v>
+        <v>157.94417759999999</v>
       </c>
       <c r="L12">
-        <v>270.69258180000003</v>
+        <v>156.1200364</v>
       </c>
       <c r="M12">
-        <v>269.50099260000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314.06421399999999</v>
+      </c>
+      <c r="N12">
+        <v>176.19444659999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -962,7 +1001,7 @@
         <v>0.47</v>
       </c>
       <c r="E13">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F13">
         <v>0.39</v>
@@ -974,27 +1013,30 @@
         <v>0.38</v>
       </c>
       <c r="I13">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J13">
         <v>0.37</v>
       </c>
       <c r="K13">
-        <v>54207.168892399997</v>
+        <v>173.1295811</v>
       </c>
       <c r="L13">
-        <v>196.5393085</v>
+        <v>143.9534664</v>
       </c>
       <c r="M13">
-        <v>235.13169669999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>317.08304750000002</v>
+      </c>
+      <c r="N13">
+        <v>187.32538339999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0.3</v>
@@ -1003,7 +1045,7 @@
         <v>0.47</v>
       </c>
       <c r="E14">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F14">
         <v>0.39</v>
@@ -1015,27 +1057,30 @@
         <v>0.38</v>
       </c>
       <c r="I14">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J14">
         <v>0.37</v>
       </c>
       <c r="K14">
-        <v>186.97966940000001</v>
+        <v>144.7168796</v>
       </c>
       <c r="L14">
-        <v>188.8602089</v>
+        <v>151.7110605</v>
       </c>
       <c r="M14">
-        <v>196.87294230000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>296.4279401</v>
+      </c>
+      <c r="N14">
+        <v>179.65093300000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>0.3</v>
@@ -1044,7 +1089,7 @@
         <v>0.47</v>
       </c>
       <c r="E15">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F15">
         <v>0.39</v>
@@ -1056,27 +1101,30 @@
         <v>0.38</v>
       </c>
       <c r="I15">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J15">
         <v>0.37</v>
       </c>
       <c r="K15">
-        <v>212.72662339999999</v>
+        <v>169.77890679999999</v>
       </c>
       <c r="L15">
-        <v>265.3767957</v>
+        <v>171.71154680000001</v>
       </c>
       <c r="M15">
-        <v>225.64255069999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>341.49045360000002</v>
+      </c>
+      <c r="N15">
+        <v>158.62441910000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0.3</v>
@@ -1085,7 +1133,7 @@
         <v>0.47</v>
       </c>
       <c r="E16">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F16">
         <v>0.39</v>
@@ -1097,27 +1145,30 @@
         <v>0.38</v>
       </c>
       <c r="I16">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J16">
         <v>0.37</v>
       </c>
       <c r="K16">
-        <v>205.945213</v>
+        <v>167.46054090000001</v>
       </c>
       <c r="L16">
-        <v>244.98856259999999</v>
+        <v>167.01811420000001</v>
       </c>
       <c r="M16">
-        <v>210.67126909999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>334.47865510000003</v>
+      </c>
+      <c r="N16">
+        <v>172.6176615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -1126,7 +1177,7 @@
         <v>0.47</v>
       </c>
       <c r="E17">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F17">
         <v>0.39</v>
@@ -1138,27 +1189,30 @@
         <v>0.38</v>
       </c>
       <c r="I17">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J17">
         <v>0.37</v>
       </c>
       <c r="K17">
-        <v>201.02480739999999</v>
+        <v>174.81711039999999</v>
       </c>
       <c r="L17">
-        <v>203.6279892</v>
+        <v>174.15751</v>
       </c>
       <c r="M17">
-        <v>200.85572160000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>348.97462039999999</v>
+      </c>
+      <c r="N17">
+        <v>164.20948050000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0.3</v>
@@ -1167,7 +1221,7 @@
         <v>0.47</v>
       </c>
       <c r="E18">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F18">
         <v>0.39</v>
@@ -1179,27 +1233,30 @@
         <v>0.38</v>
       </c>
       <c r="I18">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J18">
         <v>0.37</v>
       </c>
       <c r="K18">
-        <v>199.19544819999999</v>
+        <v>169.8871231</v>
       </c>
       <c r="L18">
-        <v>200.07261639999999</v>
+        <v>171.66724790000001</v>
       </c>
       <c r="M18">
-        <v>206.7928847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>341.554371</v>
+      </c>
+      <c r="N18">
+        <v>177.04972699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>0.3</v>
@@ -1208,7 +1265,7 @@
         <v>0.47</v>
       </c>
       <c r="E19">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F19">
         <v>0.39</v>
@@ -1220,27 +1277,30 @@
         <v>0.38</v>
       </c>
       <c r="I19">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J19">
         <v>0.37</v>
       </c>
       <c r="K19">
-        <v>238.00587680000001</v>
+        <v>173.44233560000001</v>
       </c>
       <c r="L19">
-        <v>224.16277299999999</v>
+        <v>173.50240099999999</v>
       </c>
       <c r="M19">
-        <v>289.94462060000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>346.9447366</v>
+      </c>
+      <c r="N19">
+        <v>175.3857625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>0.3</v>
@@ -1249,7 +1309,7 @@
         <v>0.47</v>
       </c>
       <c r="E20">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F20">
         <v>0.39</v>
@@ -1261,27 +1321,30 @@
         <v>0.38</v>
       </c>
       <c r="I20">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J20">
         <v>0.37</v>
       </c>
       <c r="K20">
-        <v>257.42145210000001</v>
+        <v>175.70135819999999</v>
       </c>
       <c r="L20">
-        <v>261.71172319999999</v>
+        <v>173.64413060000001</v>
       </c>
       <c r="M20">
-        <v>253.30846410000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>349.3454888</v>
+      </c>
+      <c r="N20">
+        <v>176.29554630000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>0.3</v>
@@ -1290,7 +1353,7 @@
         <v>0.47</v>
       </c>
       <c r="E21">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F21">
         <v>0.39</v>
@@ -1302,27 +1365,30 @@
         <v>0.38</v>
       </c>
       <c r="I21">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J21">
         <v>0.37</v>
       </c>
       <c r="K21">
-        <v>259.47616470000003</v>
+        <v>171.86783969999999</v>
       </c>
       <c r="L21">
-        <v>276.95340299999998</v>
+        <v>188.1804309</v>
       </c>
       <c r="M21">
-        <v>264.25330580000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>360.04827060000002</v>
+      </c>
+      <c r="N21">
+        <v>165.68161180000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>0.3</v>
@@ -1331,7 +1397,7 @@
         <v>0.47</v>
       </c>
       <c r="E22">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F22">
         <v>0.39</v>
@@ -1343,27 +1409,30 @@
         <v>0.38</v>
       </c>
       <c r="I22">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J22">
         <v>0.37</v>
       </c>
       <c r="K22">
-        <v>286.83114879999999</v>
+        <v>159.9046166</v>
       </c>
       <c r="L22">
-        <v>233.87810150000001</v>
+        <v>173.4039985</v>
       </c>
       <c r="M22">
-        <v>214.91384400000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>333.3086151</v>
+      </c>
+      <c r="N22">
+        <v>173.9331602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>0.3</v>
@@ -1372,7 +1441,7 @@
         <v>0.47</v>
       </c>
       <c r="E23">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F23">
         <v>0.39</v>
@@ -1384,27 +1453,30 @@
         <v>0.38</v>
       </c>
       <c r="I23">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J23">
         <v>0.37</v>
       </c>
       <c r="K23">
-        <v>214.25537130000001</v>
+        <v>172.11338649999999</v>
       </c>
       <c r="L23">
-        <v>246.74959100000001</v>
+        <v>172.04465490000001</v>
       </c>
       <c r="M23">
-        <v>226.30919320000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>344.1580414</v>
+      </c>
+      <c r="N23">
+        <v>171.75870750000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>0.3</v>
@@ -1413,7 +1485,7 @@
         <v>0.47</v>
       </c>
       <c r="E24">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F24">
         <v>0.39</v>
@@ -1425,27 +1497,30 @@
         <v>0.38</v>
       </c>
       <c r="I24">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J24">
         <v>0.37</v>
       </c>
       <c r="K24">
-        <v>232.69397570000001</v>
+        <v>172.0788733</v>
       </c>
       <c r="L24">
-        <v>190.1462698</v>
+        <v>169.57139789999999</v>
       </c>
       <c r="M24">
-        <v>242.43046720000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>341.65027120000002</v>
+      </c>
+      <c r="N24">
+        <v>168.71937930000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>0.3</v>
@@ -1454,7 +1529,7 @@
         <v>0.47</v>
       </c>
       <c r="E25">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F25">
         <v>0.39</v>
@@ -1466,27 +1541,30 @@
         <v>0.38</v>
       </c>
       <c r="I25">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J25">
         <v>0.37</v>
       </c>
       <c r="K25">
-        <v>369.47541560000002</v>
+        <v>171.4986399</v>
       </c>
       <c r="L25">
-        <v>261.2499239</v>
+        <v>171.24548519999999</v>
       </c>
       <c r="M25">
-        <v>318.75249480000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>342.74412510000002</v>
+      </c>
+      <c r="N25">
+        <v>168.5413293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>0.3</v>
@@ -1495,7 +1573,7 @@
         <v>0.47</v>
       </c>
       <c r="E26">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F26">
         <v>0.39</v>
@@ -1507,27 +1585,30 @@
         <v>0.38</v>
       </c>
       <c r="I26">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J26">
         <v>0.37</v>
       </c>
       <c r="K26">
-        <v>289.90691199999998</v>
+        <v>162.66927089999999</v>
       </c>
       <c r="L26">
-        <v>315.6785969</v>
+        <v>137.5870444</v>
       </c>
       <c r="M26">
-        <v>313.40284600000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>300.25631529999998</v>
+      </c>
+      <c r="N26">
+        <v>135.27196430000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>0.3</v>
@@ -1536,7 +1617,7 @@
         <v>0.47</v>
       </c>
       <c r="E27">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F27">
         <v>0.39</v>
@@ -1548,27 +1629,30 @@
         <v>0.38</v>
       </c>
       <c r="I27">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J27">
         <v>0.37</v>
       </c>
       <c r="K27">
-        <v>327.91358930000001</v>
+        <v>134.89585940000001</v>
       </c>
       <c r="L27">
-        <v>368.64081069999997</v>
+        <v>136.2312886</v>
       </c>
       <c r="M27">
-        <v>414.58538779999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>271.12714800000003</v>
+      </c>
+      <c r="N27">
+        <v>136.66030850000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>0.3</v>
@@ -1577,7 +1661,7 @@
         <v>0.47</v>
       </c>
       <c r="E28">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F28">
         <v>0.39</v>
@@ -1589,27 +1673,30 @@
         <v>0.38</v>
       </c>
       <c r="I28">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J28">
         <v>0.37</v>
       </c>
       <c r="K28">
-        <v>379.41899489999997</v>
+        <v>137.00226599999999</v>
       </c>
       <c r="L28">
-        <v>294.36639150000002</v>
+        <v>138.1807364</v>
       </c>
       <c r="M28">
-        <v>326.20556479999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>275.18300239999996</v>
+      </c>
+      <c r="N28">
+        <v>136.47005139999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>0.3</v>
@@ -1618,7 +1705,7 @@
         <v>0.47</v>
       </c>
       <c r="E29">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F29">
         <v>0.39</v>
@@ -1630,27 +1717,30 @@
         <v>0.38</v>
       </c>
       <c r="I29">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J29">
         <v>0.37</v>
       </c>
       <c r="K29">
-        <v>359.43867790000002</v>
+        <v>138.78441040000001</v>
       </c>
       <c r="L29">
-        <v>321.01918940000002</v>
+        <v>138.31746699999999</v>
       </c>
       <c r="M29">
-        <v>369.25704560000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>277.10187740000003</v>
+      </c>
+      <c r="N29">
+        <v>142.63899319999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>0.3</v>
@@ -1659,7 +1749,7 @@
         <v>0.47</v>
       </c>
       <c r="E30">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F30">
         <v>0.39</v>
@@ -1671,27 +1761,30 @@
         <v>0.38</v>
       </c>
       <c r="I30">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J30">
         <v>0.37</v>
       </c>
       <c r="K30">
-        <v>354.85367029999998</v>
+        <v>138.81124689999999</v>
       </c>
       <c r="L30">
-        <v>330.00904220000001</v>
+        <v>139.3171572</v>
       </c>
       <c r="M30">
-        <v>346.25122670000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>278.12840410000001</v>
+      </c>
+      <c r="N30">
+        <v>139.3192506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>0.3</v>
@@ -1700,7 +1793,7 @@
         <v>0.47</v>
       </c>
       <c r="E31">
-        <v>0.42499999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F31">
         <v>0.39</v>
@@ -1712,27 +1805,30 @@
         <v>0.38</v>
       </c>
       <c r="I31">
-        <v>0.42499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J31">
         <v>0.37</v>
       </c>
       <c r="K31">
-        <v>346.66442790000002</v>
+        <v>140.3571</v>
       </c>
       <c r="L31">
-        <v>250.4143511</v>
+        <v>139.85548650000001</v>
       </c>
       <c r="M31">
-        <v>257.52970599999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>280.21258650000004</v>
+      </c>
+      <c r="N31">
+        <v>138.31620939999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>0.3</v>
@@ -1741,7 +1837,7 @@
         <v>0.42</v>
       </c>
       <c r="E32">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F32">
         <v>0.45</v>
@@ -1759,21 +1855,24 @@
         <v>0.31</v>
       </c>
       <c r="K32">
-        <v>258.81817519999998</v>
+        <v>139.13150049999999</v>
       </c>
       <c r="L32">
-        <v>283.18251559999999</v>
+        <v>148.48302079999999</v>
       </c>
       <c r="M32">
-        <v>280.93774989999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>287.61452129999998</v>
+      </c>
+      <c r="N32">
+        <v>143.99179480000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>0.3</v>
@@ -1782,7 +1881,7 @@
         <v>0.42</v>
       </c>
       <c r="E33">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F33">
         <v>0.45</v>
@@ -1800,21 +1899,24 @@
         <v>0.31</v>
       </c>
       <c r="K33">
-        <v>255.93043800000001</v>
+        <v>133.83031750000001</v>
       </c>
       <c r="L33">
-        <v>278.55141709999998</v>
+        <v>171.54525390000001</v>
       </c>
       <c r="M33">
-        <v>278.00576430000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>305.37557140000001</v>
+      </c>
+      <c r="N33">
+        <v>189.66063059999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>0.3</v>
@@ -1823,7 +1925,7 @@
         <v>0.42</v>
       </c>
       <c r="E34">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F34">
         <v>0.45</v>
@@ -1841,21 +1943,24 @@
         <v>0.31</v>
       </c>
       <c r="K34">
-        <v>259.04847530000001</v>
+        <v>174.6059678</v>
       </c>
       <c r="L34">
-        <v>279.00410879999998</v>
+        <v>194.87965410000001</v>
       </c>
       <c r="M34">
-        <v>282.00096889999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>369.48562190000001</v>
+      </c>
+      <c r="N34">
+        <v>185.02519219999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>0.3</v>
@@ -1864,7 +1969,7 @@
         <v>0.42</v>
       </c>
       <c r="E35">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F35">
         <v>0.45</v>
@@ -1882,21 +1987,24 @@
         <v>0.31</v>
       </c>
       <c r="K35">
-        <v>254.74486949999999</v>
+        <v>170.7008275</v>
       </c>
       <c r="L35">
-        <v>274.4326547</v>
+        <v>186.49618469999999</v>
       </c>
       <c r="M35">
-        <v>1097.9434461000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>357.19701220000002</v>
+      </c>
+      <c r="N35">
+        <v>189.55557630000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>0.3</v>
@@ -1905,7 +2013,7 @@
         <v>0.42</v>
       </c>
       <c r="E36">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F36">
         <v>0.45</v>
@@ -1923,21 +2031,24 @@
         <v>0.31</v>
       </c>
       <c r="K36">
-        <v>215.99234139999999</v>
+        <v>180.53555900000001</v>
       </c>
       <c r="L36">
-        <v>311.87482849999998</v>
+        <v>182.93742359999999</v>
       </c>
       <c r="M36">
-        <v>286.42101009999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>363.47298260000002</v>
+      </c>
+      <c r="N36">
+        <v>177.26923859999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>0.3</v>
@@ -1946,7 +2057,7 @@
         <v>0.42</v>
       </c>
       <c r="E37">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F37">
         <v>0.45</v>
@@ -1964,21 +2075,24 @@
         <v>0.31</v>
       </c>
       <c r="K37">
-        <v>264.70204100000001</v>
+        <v>138.93185690000001</v>
       </c>
       <c r="L37">
-        <v>287.25794539999998</v>
+        <v>144.85843840000001</v>
       </c>
       <c r="M37">
-        <v>292.53815980000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>283.79029530000003</v>
+      </c>
+      <c r="N37">
+        <v>150.65031909999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>0.3</v>
@@ -1987,7 +2101,7 @@
         <v>0.42</v>
       </c>
       <c r="E38">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F38">
         <v>0.45</v>
@@ -2005,21 +2119,24 @@
         <v>0.31</v>
       </c>
       <c r="K38">
-        <v>268.00411730000002</v>
+        <v>135.99632779999999</v>
       </c>
       <c r="L38">
-        <v>284.95714279999999</v>
+        <v>144.95915239999999</v>
       </c>
       <c r="M38">
-        <v>287.69282349999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>280.95548020000001</v>
+      </c>
+      <c r="N38">
+        <v>140.9233553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>0.3</v>
@@ -2028,7 +2145,7 @@
         <v>0.42</v>
       </c>
       <c r="E39">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F39">
         <v>0.45</v>
@@ -2046,21 +2163,24 @@
         <v>0.31</v>
       </c>
       <c r="K39">
-        <v>273.07348330000002</v>
+        <v>136.70813509999999</v>
       </c>
       <c r="L39">
-        <v>306.76228839999999</v>
+        <v>142.56031920000001</v>
       </c>
       <c r="M39">
-        <v>306.6708233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>279.26845430000003</v>
+      </c>
+      <c r="N39">
+        <v>141.12343079999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>0.3</v>
@@ -2069,7 +2189,7 @@
         <v>0.42</v>
       </c>
       <c r="E40">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F40">
         <v>0.45</v>
@@ -2087,21 +2207,24 @@
         <v>0.31</v>
       </c>
       <c r="K40">
-        <v>282.27769979999999</v>
+        <v>136.88814690000001</v>
       </c>
       <c r="L40">
-        <v>309.7956868</v>
+        <v>155.2653019</v>
       </c>
       <c r="M40">
-        <v>309.14070270000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>292.15344879999998</v>
+      </c>
+      <c r="N40">
+        <v>153.66723429999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>0.3</v>
@@ -2110,7 +2233,7 @@
         <v>0.42</v>
       </c>
       <c r="E41">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="F41">
         <v>0.45</v>
@@ -2128,21 +2251,24 @@
         <v>0.31</v>
       </c>
       <c r="K41">
-        <v>287.27671809999998</v>
+        <v>154.1738144</v>
       </c>
       <c r="L41">
-        <v>296.7923409</v>
+        <v>158.9259505</v>
       </c>
       <c r="M41">
-        <v>304.90444780000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>313.09976489999997</v>
+      </c>
+      <c r="N41">
+        <v>169.7894234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>0.3</v>
@@ -2151,7 +2277,7 @@
         <v>0.4</v>
       </c>
       <c r="E42">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F42">
         <v>0.39</v>
@@ -2163,27 +2289,30 @@
         <v>0.31</v>
       </c>
       <c r="I42">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J42">
         <v>0.31</v>
       </c>
       <c r="K42">
-        <v>299.67556680000001</v>
+        <v>152.57693509999999</v>
       </c>
       <c r="L42">
-        <v>310.46537810000001</v>
+        <v>158.03063</v>
       </c>
       <c r="M42">
-        <v>309.59997980000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>310.60756509999999</v>
+      </c>
+      <c r="N42">
+        <v>153.72079840000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>0.3</v>
@@ -2192,7 +2321,7 @@
         <v>0.4</v>
       </c>
       <c r="E43">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F43">
         <v>0.39</v>
@@ -2204,27 +2333,30 @@
         <v>0.31</v>
       </c>
       <c r="I43">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J43">
         <v>0.31</v>
       </c>
       <c r="K43">
-        <v>282.069706</v>
+        <v>141.8284099</v>
       </c>
       <c r="L43">
-        <v>303.39135299999998</v>
+        <v>147.26126690000001</v>
       </c>
       <c r="M43">
-        <v>294.64199050000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>289.08967680000001</v>
+      </c>
+      <c r="N43">
+        <v>151.63237369999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>0.3</v>
@@ -2233,7 +2365,7 @@
         <v>0.4</v>
       </c>
       <c r="E44">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F44">
         <v>0.39</v>
@@ -2245,27 +2377,30 @@
         <v>0.31</v>
       </c>
       <c r="I44">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J44">
         <v>0.31</v>
       </c>
       <c r="K44">
-        <v>260.5373922</v>
+        <v>141.17177100000001</v>
       </c>
       <c r="L44">
-        <v>351.68246540000001</v>
+        <v>145.2914246</v>
       </c>
       <c r="M44">
-        <v>309.84478080000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286.46319560000001</v>
+      </c>
+      <c r="N44">
+        <v>165.77434600000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>0.3</v>
@@ -2274,7 +2409,7 @@
         <v>0.4</v>
       </c>
       <c r="E45">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F45">
         <v>0.39</v>
@@ -2286,27 +2421,30 @@
         <v>0.31</v>
       </c>
       <c r="I45">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J45">
         <v>0.31</v>
       </c>
       <c r="K45">
-        <v>295.69501270000001</v>
+        <v>157.6507355</v>
       </c>
       <c r="L45">
-        <v>336.67823299999998</v>
+        <v>181.5631563</v>
       </c>
       <c r="M45">
-        <v>359.9979644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>339.2138918</v>
+      </c>
+      <c r="N45">
+        <v>194.38358969999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>0.3</v>
@@ -2315,7 +2453,7 @@
         <v>0.4</v>
       </c>
       <c r="E46">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F46">
         <v>0.39</v>
@@ -2327,27 +2465,30 @@
         <v>0.31</v>
       </c>
       <c r="I46">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J46">
         <v>0.31</v>
       </c>
       <c r="K46">
-        <v>310.35234530000002</v>
+        <v>196.2863054</v>
       </c>
       <c r="L46">
-        <v>336.87564959999997</v>
+        <v>277.85512820000002</v>
       </c>
       <c r="M46">
-        <v>344.72778729999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>474.14143360000003</v>
+      </c>
+      <c r="N46">
+        <v>312.70627050000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>0.3</v>
@@ -2356,7 +2497,7 @@
         <v>0.4</v>
       </c>
       <c r="E47">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F47">
         <v>0.39</v>
@@ -2368,27 +2509,30 @@
         <v>0.31</v>
       </c>
       <c r="I47">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J47">
         <v>0.31</v>
       </c>
       <c r="K47">
-        <v>347.25957579999999</v>
+        <v>254.93981350000001</v>
       </c>
       <c r="L47">
-        <v>365.88146180000001</v>
+        <v>254.4104955</v>
       </c>
       <c r="M47">
-        <v>364.0930702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>509.35030900000004</v>
+      </c>
+      <c r="N47">
+        <v>259.55318690000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>0.3</v>
@@ -2397,7 +2541,7 @@
         <v>0.4</v>
       </c>
       <c r="E48">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F48">
         <v>0.39</v>
@@ -2409,27 +2553,30 @@
         <v>0.31</v>
       </c>
       <c r="I48">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J48">
         <v>0.31</v>
       </c>
       <c r="K48">
-        <v>348.95621510000001</v>
+        <v>249.83013990000001</v>
       </c>
       <c r="L48">
-        <v>353.26621519999998</v>
+        <v>244.5006554</v>
       </c>
       <c r="M48">
-        <v>315.9620764</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>494.33079529999998</v>
+      </c>
+      <c r="N48">
+        <v>247.60554389999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>0.3</v>
@@ -2438,7 +2585,7 @@
         <v>0.4</v>
       </c>
       <c r="E49">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F49">
         <v>0.39</v>
@@ -2450,27 +2597,30 @@
         <v>0.31</v>
       </c>
       <c r="I49">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J49">
         <v>0.31</v>
       </c>
       <c r="K49">
-        <v>235.27673680000001</v>
+        <v>243.81708510000001</v>
       </c>
       <c r="L49">
-        <v>267.90461499999998</v>
+        <v>222.4482922</v>
       </c>
       <c r="M49">
-        <v>257.9375096</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>466.26537730000001</v>
+      </c>
+      <c r="N49">
+        <v>191.39108909999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>0.3</v>
@@ -2479,7 +2629,7 @@
         <v>0.4</v>
       </c>
       <c r="E50">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F50">
         <v>0.39</v>
@@ -2491,27 +2641,30 @@
         <v>0.31</v>
       </c>
       <c r="I50">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J50">
         <v>0.31</v>
       </c>
       <c r="K50">
-        <v>243.74931369999999</v>
+        <v>177.7487089</v>
       </c>
       <c r="L50">
-        <v>247.16108500000001</v>
+        <v>180.09160919999999</v>
       </c>
       <c r="M50">
-        <v>274.70251300000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>357.84031809999999</v>
+      </c>
+      <c r="N50">
+        <v>201.9018671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>0.3</v>
@@ -2520,7 +2673,7 @@
         <v>0.4</v>
       </c>
       <c r="E51">
-        <v>0.35499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="F51">
         <v>0.39</v>
@@ -2532,27 +2685,30 @@
         <v>0.31</v>
       </c>
       <c r="I51">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="J51">
         <v>0.31</v>
       </c>
       <c r="K51">
-        <v>310.60523339999997</v>
+        <v>185.49857470000001</v>
       </c>
       <c r="L51">
-        <v>372.74926499999998</v>
+        <v>196.7241678</v>
       </c>
       <c r="M51">
-        <v>403.75557570000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>382.22274249999998</v>
+      </c>
+      <c r="N51">
+        <v>187.16855630000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>0.81</v>
@@ -2561,7 +2717,7 @@
         <v>0.47</v>
       </c>
       <c r="E52">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F52">
         <v>0.83</v>
@@ -2573,27 +2729,30 @@
         <v>0.38</v>
       </c>
       <c r="I52">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J52">
         <v>0.84</v>
       </c>
       <c r="K52">
-        <v>2124.6313620999999</v>
+        <v>175.71687230000001</v>
       </c>
       <c r="L52">
-        <v>189.40968889999999</v>
+        <v>173.49890329999999</v>
       </c>
       <c r="M52">
-        <v>192.96597030000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>349.21577560000003</v>
+      </c>
+      <c r="N52">
+        <v>168.13603119999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>0.81</v>
@@ -2602,7 +2761,7 @@
         <v>0.47</v>
       </c>
       <c r="E53">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F53">
         <v>0.83</v>
@@ -2614,27 +2773,30 @@
         <v>0.38</v>
       </c>
       <c r="I53">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J53">
         <v>0.84</v>
       </c>
       <c r="K53">
-        <v>195.08289819999999</v>
+        <v>172.1304877</v>
       </c>
       <c r="L53">
-        <v>199.77133689999999</v>
+        <v>171.7677104</v>
       </c>
       <c r="M53">
-        <v>201.6910197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>343.8981981</v>
+      </c>
+      <c r="N53">
+        <v>174.6525226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>0.81</v>
@@ -2643,7 +2805,7 @@
         <v>0.47</v>
       </c>
       <c r="E54">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F54">
         <v>0.83</v>
@@ -2655,27 +2817,30 @@
         <v>0.38</v>
       </c>
       <c r="I54">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J54">
         <v>0.84</v>
       </c>
       <c r="K54">
-        <v>203.35194519999999</v>
+        <v>172.1242728</v>
       </c>
       <c r="L54">
-        <v>198.43654609999999</v>
+        <v>170.6947729</v>
       </c>
       <c r="M54">
-        <v>197.7455764</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>342.8190457</v>
+      </c>
+      <c r="N54">
+        <v>170.15763569999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>0.81</v>
@@ -2684,7 +2849,7 @@
         <v>0.47</v>
       </c>
       <c r="E55">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F55">
         <v>0.83</v>
@@ -2696,27 +2861,30 @@
         <v>0.38</v>
       </c>
       <c r="I55">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J55">
         <v>0.84</v>
       </c>
       <c r="K55">
-        <v>201.71943289999999</v>
+        <v>168.93388139999999</v>
       </c>
       <c r="L55">
-        <v>202.70491749999999</v>
+        <v>181.65851090000001</v>
       </c>
       <c r="M55">
-        <v>206.87297659999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>350.59239230000003</v>
+      </c>
+      <c r="N55">
+        <v>206.13786099999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>0.81</v>
@@ -2725,7 +2893,7 @@
         <v>0.47</v>
       </c>
       <c r="E56">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F56">
         <v>0.83</v>
@@ -2737,27 +2905,30 @@
         <v>0.38</v>
       </c>
       <c r="I56">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J56">
         <v>0.84</v>
       </c>
       <c r="K56">
-        <v>177.1317267</v>
+        <v>174.92802459999999</v>
       </c>
       <c r="L56">
-        <v>178.2718074</v>
+        <v>197.38324320000001</v>
       </c>
       <c r="M56">
-        <v>179.2679564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>372.3112678</v>
+      </c>
+      <c r="N56">
+        <v>209.0094575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>0.81</v>
@@ -2766,7 +2937,7 @@
         <v>0.47</v>
       </c>
       <c r="E57">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F57">
         <v>0.83</v>
@@ -2778,27 +2949,30 @@
         <v>0.38</v>
       </c>
       <c r="I57">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J57">
         <v>0.84</v>
       </c>
       <c r="K57">
-        <v>178.8110168</v>
+        <v>182.14431010000001</v>
       </c>
       <c r="L57">
-        <v>179.4232863</v>
+        <v>178.3223725</v>
       </c>
       <c r="M57">
-        <v>180.05737590000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>360.46668260000001</v>
+      </c>
+      <c r="N57">
+        <v>749.75045139999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>0.81</v>
@@ -2807,7 +2981,7 @@
         <v>0.47</v>
       </c>
       <c r="E58">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F58">
         <v>0.83</v>
@@ -2819,27 +2993,30 @@
         <v>0.38</v>
       </c>
       <c r="I58">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J58">
         <v>0.84</v>
       </c>
       <c r="K58">
-        <v>177.19308380000001</v>
+        <v>296.47542870000001</v>
       </c>
       <c r="L58">
-        <v>272.98084740000002</v>
+        <v>159.5154704</v>
       </c>
       <c r="M58">
-        <v>115.49952469999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>455.99089909999998</v>
+      </c>
+      <c r="N58">
+        <v>140.43876330000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>0.81</v>
@@ -2848,7 +3025,7 @@
         <v>0.47</v>
       </c>
       <c r="E59">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F59">
         <v>0.83</v>
@@ -2860,27 +3037,30 @@
         <v>0.38</v>
       </c>
       <c r="I59">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J59">
         <v>0.84</v>
       </c>
       <c r="K59">
-        <v>116.0691649</v>
+        <v>139.21006550000001</v>
       </c>
       <c r="L59">
-        <v>115.7825486</v>
+        <v>141.3093623</v>
       </c>
       <c r="M59">
-        <v>116.33620190000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>280.51942780000002</v>
+      </c>
+      <c r="N59">
+        <v>136.42726959999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>0.81</v>
@@ -2889,7 +3069,7 @@
         <v>0.47</v>
       </c>
       <c r="E60">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F60">
         <v>0.83</v>
@@ -2901,27 +3081,30 @@
         <v>0.38</v>
       </c>
       <c r="I60">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J60">
         <v>0.84</v>
       </c>
       <c r="K60">
-        <v>115.74786330000001</v>
+        <v>139.05822209999999</v>
       </c>
       <c r="L60">
-        <v>116.3841042</v>
+        <v>170.0256703</v>
       </c>
       <c r="M60">
-        <v>115.60869409999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>309.08389239999997</v>
+      </c>
+      <c r="N60">
+        <v>137.62627259999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61">
         <v>0.81</v>
@@ -2930,7 +3113,7 @@
         <v>0.47</v>
       </c>
       <c r="E61">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F61">
         <v>0.83</v>
@@ -2942,27 +3125,30 @@
         <v>0.38</v>
       </c>
       <c r="I61">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J61">
         <v>0.84</v>
       </c>
       <c r="K61">
-        <v>115.5945076</v>
+        <v>131.86779200000001</v>
       </c>
       <c r="L61">
-        <v>115.4624386</v>
+        <v>132.74843670000001</v>
       </c>
       <c r="M61">
-        <v>115.504136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>264.61622870000002</v>
+      </c>
+      <c r="N61">
+        <v>137.14618970000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62">
         <v>0.81</v>
@@ -2971,7 +3157,7 @@
         <v>0.47</v>
       </c>
       <c r="E62">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F62">
         <v>0.83</v>
@@ -2983,27 +3169,30 @@
         <v>0.38</v>
       </c>
       <c r="I62">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J62">
         <v>0.84</v>
       </c>
       <c r="K62">
-        <v>115.88938469999999</v>
+        <v>145.15819719999999</v>
       </c>
       <c r="L62">
-        <v>116.40156899999999</v>
+        <v>144.4560534</v>
       </c>
       <c r="M62">
-        <v>115.5564239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>289.61425059999999</v>
+      </c>
+      <c r="N62">
+        <v>144.1633831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>0.81</v>
@@ -3012,7 +3201,7 @@
         <v>0.47</v>
       </c>
       <c r="E63">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F63">
         <v>0.83</v>
@@ -3024,27 +3213,30 @@
         <v>0.38</v>
       </c>
       <c r="I63">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J63">
         <v>0.84</v>
       </c>
       <c r="K63">
-        <v>115.5910234</v>
+        <v>144.6510586</v>
       </c>
       <c r="L63">
-        <v>115.69190930000001</v>
+        <v>143.923734</v>
       </c>
       <c r="M63">
-        <v>115.5638338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>288.57479260000002</v>
+      </c>
+      <c r="N63">
+        <v>143.45390259999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>0.81</v>
@@ -3053,7 +3245,7 @@
         <v>0.47</v>
       </c>
       <c r="E64">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F64">
         <v>0.83</v>
@@ -3065,27 +3257,30 @@
         <v>0.38</v>
       </c>
       <c r="I64">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J64">
         <v>0.84</v>
       </c>
       <c r="K64">
-        <v>115.7486509</v>
+        <v>145.32432349999999</v>
       </c>
       <c r="L64">
-        <v>115.7743232</v>
+        <v>143.87801200000001</v>
       </c>
       <c r="M64">
-        <v>115.85995389999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>289.2023355</v>
+      </c>
+      <c r="N64">
+        <v>145.3039607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>0.81</v>
@@ -3094,7 +3289,7 @@
         <v>0.47</v>
       </c>
       <c r="E65">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F65">
         <v>0.83</v>
@@ -3106,27 +3301,30 @@
         <v>0.38</v>
       </c>
       <c r="I65">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J65">
         <v>0.84</v>
       </c>
       <c r="K65">
-        <v>115.7286726</v>
+        <v>144.6630906</v>
       </c>
       <c r="L65">
-        <v>115.83066100000001</v>
+        <v>143.85345989999999</v>
       </c>
       <c r="M65">
-        <v>115.85949549999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>288.51655049999999</v>
+      </c>
+      <c r="N65">
+        <v>144.15612999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C66">
         <v>0.81</v>
@@ -3135,7 +3333,7 @@
         <v>0.47</v>
       </c>
       <c r="E66">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F66">
         <v>0.83</v>
@@ -3147,27 +3345,30 @@
         <v>0.38</v>
       </c>
       <c r="I66">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J66">
         <v>0.84</v>
       </c>
       <c r="K66">
-        <v>115.8104767</v>
+        <v>142.9680286</v>
       </c>
       <c r="L66">
-        <v>116.7991562</v>
+        <v>142.01641420000001</v>
       </c>
       <c r="M66">
-        <v>115.8319352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.98444280000001</v>
+      </c>
+      <c r="N66">
+        <v>143.1080312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67">
         <v>0.81</v>
@@ -3176,7 +3377,7 @@
         <v>0.47</v>
       </c>
       <c r="E67">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F67">
         <v>0.83</v>
@@ -3188,27 +3389,30 @@
         <v>0.38</v>
       </c>
       <c r="I67">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J67">
         <v>0.84</v>
       </c>
       <c r="K67">
-        <v>115.79705269999999</v>
+        <v>142.5118267</v>
       </c>
       <c r="L67">
-        <v>115.5112498</v>
+        <v>141.54165699999999</v>
       </c>
       <c r="M67">
-        <v>115.6463059</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.05348370000002</v>
+      </c>
+      <c r="N67">
+        <v>141.8502924</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>0.81</v>
@@ -3217,7 +3421,7 @@
         <v>0.47</v>
       </c>
       <c r="E68">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F68">
         <v>0.83</v>
@@ -3229,27 +3433,30 @@
         <v>0.38</v>
       </c>
       <c r="I68">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J68">
         <v>0.84</v>
       </c>
       <c r="K68">
-        <v>115.4409311</v>
+        <v>141.88476080000001</v>
       </c>
       <c r="L68">
-        <v>115.4706877</v>
+        <v>142.3481304</v>
       </c>
       <c r="M68">
-        <v>116.01241539999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.23289120000004</v>
+      </c>
+      <c r="N68">
+        <v>142.08778799999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>0.81</v>
@@ -3258,7 +3465,7 @@
         <v>0.47</v>
       </c>
       <c r="E69">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F69">
         <v>0.83</v>
@@ -3270,27 +3477,30 @@
         <v>0.38</v>
       </c>
       <c r="I69">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J69">
         <v>0.84</v>
       </c>
       <c r="K69">
-        <v>115.6093127</v>
+        <v>141.0283566</v>
       </c>
       <c r="L69">
-        <v>115.8722022</v>
+        <v>141.53017209999999</v>
       </c>
       <c r="M69">
-        <v>116.7958587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>282.55852870000001</v>
+      </c>
+      <c r="N69">
+        <v>141.15723389999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>0.81</v>
@@ -3299,7 +3509,7 @@
         <v>0.47</v>
       </c>
       <c r="E70">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F70">
         <v>0.83</v>
@@ -3311,27 +3521,30 @@
         <v>0.38</v>
       </c>
       <c r="I70">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J70">
         <v>0.84</v>
       </c>
       <c r="K70">
-        <v>115.73378719999999</v>
+        <v>141.45535480000001</v>
       </c>
       <c r="L70">
-        <v>116.0729674</v>
+        <v>142.60512270000001</v>
       </c>
       <c r="M70">
-        <v>115.8460012</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.06047750000005</v>
+      </c>
+      <c r="N70">
+        <v>142.54372330000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <v>0.81</v>
@@ -3340,7 +3553,7 @@
         <v>0.47</v>
       </c>
       <c r="E71">
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F71">
         <v>0.83</v>
@@ -3352,27 +3565,30 @@
         <v>0.38</v>
       </c>
       <c r="I71">
-        <v>0.42499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J71">
         <v>0.84</v>
       </c>
       <c r="K71">
-        <v>115.44950609999999</v>
+        <v>143.516077</v>
       </c>
       <c r="L71">
-        <v>116.67390760000001</v>
+        <v>142.9573753</v>
       </c>
       <c r="M71">
-        <v>116.2798164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286.47345229999996</v>
+      </c>
+      <c r="N71">
+        <v>142.7747344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>0.81</v>
@@ -3381,7 +3597,7 @@
         <v>0.42</v>
       </c>
       <c r="E72">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F72">
         <v>0.81</v>
@@ -3393,27 +3609,30 @@
         <v>0.3</v>
       </c>
       <c r="I72">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J72">
         <v>0.82</v>
       </c>
       <c r="K72">
-        <v>115.5008096</v>
+        <v>142.17082289999999</v>
       </c>
       <c r="L72">
-        <v>120.9912073</v>
+        <v>149.30105019999999</v>
       </c>
       <c r="M72">
-        <v>120.45260519999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>291.47187309999998</v>
+      </c>
+      <c r="N72">
+        <v>149.84095919999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>0.81</v>
@@ -3422,7 +3641,7 @@
         <v>0.42</v>
       </c>
       <c r="E73">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F73">
         <v>0.81</v>
@@ -3434,27 +3653,30 @@
         <v>0.3</v>
       </c>
       <c r="I73">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J73">
         <v>0.82</v>
       </c>
       <c r="K73">
-        <v>115.5457126</v>
+        <v>139.7628239</v>
       </c>
       <c r="L73">
-        <v>120.7105873</v>
+        <v>145.45562889999999</v>
       </c>
       <c r="M73">
-        <v>120.4323405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>285.21845280000002</v>
+      </c>
+      <c r="N73">
+        <v>145.48513320000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>0.81</v>
@@ -3463,7 +3685,7 @@
         <v>0.42</v>
       </c>
       <c r="E74">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F74">
         <v>0.81</v>
@@ -3475,27 +3697,30 @@
         <v>0.3</v>
       </c>
       <c r="I74">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J74">
         <v>0.82</v>
       </c>
       <c r="K74">
-        <v>115.674519</v>
+        <v>138.9620108</v>
       </c>
       <c r="L74">
-        <v>120.3457441</v>
+        <v>167.85195959999999</v>
       </c>
       <c r="M74">
-        <v>121.1587986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>306.81397040000002</v>
+      </c>
+      <c r="N74">
+        <v>168.2898969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>0.81</v>
@@ -3504,7 +3729,7 @@
         <v>0.42</v>
       </c>
       <c r="E75">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F75">
         <v>0.81</v>
@@ -3516,27 +3741,30 @@
         <v>0.3</v>
       </c>
       <c r="I75">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J75">
         <v>0.82</v>
       </c>
       <c r="K75">
-        <v>115.8384772</v>
+        <v>136.4581743</v>
       </c>
       <c r="L75">
-        <v>120.7396348</v>
+        <v>143.30761580000001</v>
       </c>
       <c r="M75">
-        <v>120.2478053</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>279.7657901</v>
+      </c>
+      <c r="N75">
+        <v>144.53345049999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76">
         <v>0.81</v>
@@ -3545,7 +3773,7 @@
         <v>0.42</v>
       </c>
       <c r="E76">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F76">
         <v>0.81</v>
@@ -3557,27 +3785,30 @@
         <v>0.3</v>
       </c>
       <c r="I76">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J76">
         <v>0.82</v>
       </c>
       <c r="K76">
-        <v>114.96189270000001</v>
+        <v>137.47365690000001</v>
       </c>
       <c r="L76">
-        <v>120.2584289</v>
+        <v>144.86234400000001</v>
       </c>
       <c r="M76">
-        <v>119.95625130000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>282.33600090000004</v>
+      </c>
+      <c r="N76">
+        <v>145.36058589999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>0.81</v>
@@ -3586,7 +3817,7 @@
         <v>0.42</v>
       </c>
       <c r="E77">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F77">
         <v>0.81</v>
@@ -3598,27 +3829,30 @@
         <v>0.3</v>
       </c>
       <c r="I77">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J77">
         <v>0.82</v>
       </c>
       <c r="K77">
-        <v>114.99349580000001</v>
+        <v>137.63295890000001</v>
       </c>
       <c r="L77">
-        <v>120.1422221</v>
+        <v>145.90704930000001</v>
       </c>
       <c r="M77">
-        <v>119.9599065</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <v>283.54000819999999</v>
+      </c>
+      <c r="N77">
+        <v>145.98155109999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>0.81</v>
@@ -3627,7 +3861,7 @@
         <v>0.42</v>
       </c>
       <c r="E78">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F78">
         <v>0.81</v>
@@ -3639,27 +3873,30 @@
         <v>0.3</v>
       </c>
       <c r="I78">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J78">
         <v>0.82</v>
       </c>
       <c r="K78">
-        <v>115.0017618</v>
+        <v>138.90695669999999</v>
       </c>
       <c r="L78">
-        <v>120.09768939999999</v>
+        <v>146.37129909999999</v>
       </c>
       <c r="M78">
-        <v>119.9863533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>285.27825580000001</v>
+      </c>
+      <c r="N78">
+        <v>146.3012487</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>0.81</v>
@@ -3668,7 +3905,7 @@
         <v>0.42</v>
       </c>
       <c r="E79">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F79">
         <v>0.81</v>
@@ -3680,27 +3917,30 @@
         <v>0.3</v>
       </c>
       <c r="I79">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J79">
         <v>0.82</v>
       </c>
       <c r="K79">
-        <v>115.0761558</v>
+        <v>139.94776329999999</v>
       </c>
       <c r="L79">
-        <v>120.1847473</v>
+        <v>144.5085455</v>
       </c>
       <c r="M79">
-        <v>120.4317392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.45630879999999</v>
+      </c>
+      <c r="N79">
+        <v>145.47837849999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>0.81</v>
@@ -3709,7 +3949,7 @@
         <v>0.42</v>
       </c>
       <c r="E80">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F80">
         <v>0.81</v>
@@ -3721,27 +3961,30 @@
         <v>0.3</v>
       </c>
       <c r="I80">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J80">
         <v>0.82</v>
       </c>
       <c r="K80">
-        <v>116.3785079</v>
+        <v>138.27094769999999</v>
       </c>
       <c r="L80">
-        <v>120.78154480000001</v>
+        <v>144.885426</v>
       </c>
       <c r="M80">
-        <v>120.55123930000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>283.15637370000002</v>
+      </c>
+      <c r="N80">
+        <v>145.09281559999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>0.81</v>
@@ -3750,7 +3993,7 @@
         <v>0.42</v>
       </c>
       <c r="E81">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="F81">
         <v>0.81</v>
@@ -3762,27 +4005,30 @@
         <v>0.3</v>
       </c>
       <c r="I81">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J81">
         <v>0.82</v>
       </c>
       <c r="K81">
-        <v>115.3366377</v>
+        <v>137.87982969999999</v>
       </c>
       <c r="L81">
-        <v>120.2344331</v>
+        <v>148.63102409999999</v>
       </c>
       <c r="M81">
-        <v>120.4358543</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286.51085379999995</v>
+      </c>
+      <c r="N81">
+        <v>146.89203459999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82">
         <v>0.81</v>
@@ -3791,7 +4037,7 @@
         <v>0.4</v>
       </c>
       <c r="E82">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F82">
         <v>0.84</v>
@@ -3803,27 +4049,30 @@
         <v>0.31</v>
       </c>
       <c r="I82">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J82">
         <v>0.85</v>
       </c>
       <c r="K82">
-        <v>115.500118</v>
+        <v>138.95833640000001</v>
       </c>
       <c r="L82">
-        <v>120.2983792</v>
+        <v>145.7836901</v>
       </c>
       <c r="M82">
-        <v>120.8809105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.74202650000001</v>
+      </c>
+      <c r="N82">
+        <v>146.12359850000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C83">
         <v>0.81</v>
@@ -3832,7 +4081,7 @@
         <v>0.4</v>
       </c>
       <c r="E83">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F83">
         <v>0.84</v>
@@ -3844,27 +4093,30 @@
         <v>0.31</v>
       </c>
       <c r="I83">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J83">
         <v>0.85</v>
       </c>
       <c r="K83">
-        <v>115.5134194</v>
+        <v>138.5243443</v>
       </c>
       <c r="L83">
-        <v>120.4932957</v>
+        <v>147.53251090000001</v>
       </c>
       <c r="M83">
-        <v>120.32194749999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286.05685519999997</v>
+      </c>
+      <c r="N83">
+        <v>146.26812409999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>0.81</v>
@@ -3873,7 +4125,7 @@
         <v>0.4</v>
       </c>
       <c r="E84">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F84">
         <v>0.84</v>
@@ -3885,27 +4137,30 @@
         <v>0.31</v>
       </c>
       <c r="I84">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J84">
         <v>0.85</v>
       </c>
       <c r="K84">
-        <v>115.6773048</v>
+        <v>138.7455606</v>
       </c>
       <c r="L84">
-        <v>120.2819059</v>
+        <v>146.1124485</v>
       </c>
       <c r="M84">
-        <v>120.0267666</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>284.8580091</v>
+      </c>
+      <c r="N84">
+        <v>144.41211820000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>0.81</v>
@@ -3914,7 +4169,7 @@
         <v>0.4</v>
       </c>
       <c r="E85">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F85">
         <v>0.84</v>
@@ -3926,27 +4181,30 @@
         <v>0.31</v>
       </c>
       <c r="I85">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J85">
         <v>0.85</v>
       </c>
       <c r="K85">
-        <v>115.4098774</v>
+        <v>139.12905409999999</v>
       </c>
       <c r="L85">
-        <v>120.1554612</v>
+        <v>147.0054457</v>
       </c>
       <c r="M85">
-        <v>120.13845310000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286.13449979999996</v>
+      </c>
+      <c r="N85">
+        <v>138.25859689999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86">
         <v>0.81</v>
@@ -3955,7 +4213,7 @@
         <v>0.4</v>
       </c>
       <c r="E86">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F86">
         <v>0.84</v>
@@ -3967,27 +4225,30 @@
         <v>0.31</v>
       </c>
       <c r="I86">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J86">
         <v>0.85</v>
       </c>
       <c r="K86">
-        <v>115.21205550000001</v>
+        <v>131.562085</v>
       </c>
       <c r="L86">
-        <v>119.99544469999999</v>
+        <v>137.4376082</v>
       </c>
       <c r="M86">
-        <v>120.251372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <v>268.99969320000002</v>
+      </c>
+      <c r="N86">
+        <v>138.43846350000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>0.81</v>
@@ -3996,7 +4257,7 @@
         <v>0.4</v>
       </c>
       <c r="E87">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F87">
         <v>0.84</v>
@@ -4008,27 +4269,30 @@
         <v>0.31</v>
       </c>
       <c r="I87">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J87">
         <v>0.85</v>
       </c>
       <c r="K87">
-        <v>115.28250559999999</v>
+        <v>130.98848570000001</v>
       </c>
       <c r="L87">
-        <v>119.97684219999999</v>
+        <v>137.0920021</v>
       </c>
       <c r="M87">
-        <v>120.3620097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <v>268.08048780000001</v>
+      </c>
+      <c r="N87">
+        <v>137.6013389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C88">
         <v>0.81</v>
@@ -4037,7 +4301,7 @@
         <v>0.4</v>
       </c>
       <c r="E88">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F88">
         <v>0.84</v>
@@ -4049,27 +4313,30 @@
         <v>0.31</v>
       </c>
       <c r="I88">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J88">
         <v>0.85</v>
       </c>
       <c r="K88">
-        <v>115.16329450000001</v>
+        <v>131.67048560000001</v>
       </c>
       <c r="L88">
-        <v>120.2418375</v>
+        <v>137.8376619</v>
       </c>
       <c r="M88">
-        <v>120.1645274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>269.50814750000001</v>
+      </c>
+      <c r="N88">
+        <v>137.39563749999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C89">
         <v>0.81</v>
@@ -4078,7 +4345,7 @@
         <v>0.4</v>
       </c>
       <c r="E89">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F89">
         <v>0.84</v>
@@ -4090,27 +4357,30 @@
         <v>0.31</v>
       </c>
       <c r="I89">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J89">
         <v>0.85</v>
       </c>
       <c r="K89">
-        <v>115.1971635</v>
+        <v>131.43251839999999</v>
       </c>
       <c r="L89">
-        <v>120.1863658</v>
+        <v>136.76407140000001</v>
       </c>
       <c r="M89">
-        <v>120.03747660000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>268.19658979999997</v>
+      </c>
+      <c r="N89">
+        <v>138.9810291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C90">
         <v>0.81</v>
@@ -4119,7 +4389,7 @@
         <v>0.4</v>
       </c>
       <c r="E90">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F90">
         <v>0.84</v>
@@ -4131,27 +4401,30 @@
         <v>0.31</v>
       </c>
       <c r="I90">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J90">
         <v>0.85</v>
       </c>
       <c r="K90">
-        <v>115.5916278</v>
+        <v>131.1991203</v>
       </c>
       <c r="L90">
-        <v>120.2343731</v>
+        <v>138.53309429999999</v>
       </c>
       <c r="M90">
-        <v>120.7258557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>269.73221460000002</v>
+      </c>
+      <c r="N90">
+        <v>136.60183040000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <v>0.81</v>
@@ -4160,7 +4433,7 @@
         <v>0.4</v>
       </c>
       <c r="E91">
-        <v>0.35499999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F91">
         <v>0.84</v>
@@ -4172,27 +4445,30 @@
         <v>0.31</v>
       </c>
       <c r="I91">
-        <v>0.35499999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="J91">
         <v>0.85</v>
       </c>
       <c r="K91">
-        <v>115.30260319999999</v>
+        <v>134.78365959999999</v>
       </c>
       <c r="L91">
-        <v>120.4292619</v>
+        <v>137.47480229999999</v>
       </c>
       <c r="M91">
-        <v>120.5024544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <v>272.25846189999999</v>
+      </c>
+      <c r="N91">
+        <v>139.8369094</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C92">
         <v>0.47</v>
@@ -4201,7 +4477,7 @@
         <v>0.42</v>
       </c>
       <c r="E92">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F92">
         <v>0.46</v>
@@ -4213,27 +4489,30 @@
         <v>0.3</v>
       </c>
       <c r="I92">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J92">
         <v>0.45</v>
       </c>
       <c r="K92">
-        <v>115.46204760000001</v>
+        <v>133.52958960000001</v>
       </c>
       <c r="L92">
-        <v>119.95606890000001</v>
+        <v>140.1728076</v>
       </c>
       <c r="M92">
-        <v>121.3094095</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>273.70239720000001</v>
+      </c>
+      <c r="N92">
+        <v>138.64088050000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93">
         <v>0.47</v>
@@ -4242,7 +4521,7 @@
         <v>0.42</v>
       </c>
       <c r="E93">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F93">
         <v>0.46</v>
@@ -4254,27 +4533,30 @@
         <v>0.3</v>
       </c>
       <c r="I93">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J93">
         <v>0.45</v>
       </c>
       <c r="K93">
-        <v>116.1437543</v>
+        <v>124.4141527</v>
       </c>
       <c r="L93">
-        <v>129.0787985</v>
+        <v>132.15581349999999</v>
       </c>
       <c r="M93">
-        <v>136.4008173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>256.56996620000001</v>
+      </c>
+      <c r="N93">
+        <v>127.5830725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C94">
         <v>0.47</v>
@@ -4283,7 +4565,7 @@
         <v>0.42</v>
       </c>
       <c r="E94">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F94">
         <v>0.46</v>
@@ -4295,27 +4577,30 @@
         <v>0.3</v>
       </c>
       <c r="I94">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J94">
         <v>0.45</v>
       </c>
       <c r="K94">
-        <v>114.1017784</v>
+        <v>121.17250970000001</v>
       </c>
       <c r="L94">
-        <v>119.8792268</v>
+        <v>126.7666505</v>
       </c>
       <c r="M94">
-        <v>120.97458930000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <v>247.9391602</v>
+      </c>
+      <c r="N94">
+        <v>127.8512271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C95">
         <v>0.47</v>
@@ -4324,7 +4609,7 @@
         <v>0.42</v>
       </c>
       <c r="E95">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F95">
         <v>0.46</v>
@@ -4336,27 +4621,30 @@
         <v>0.3</v>
       </c>
       <c r="I95">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J95">
         <v>0.45</v>
       </c>
       <c r="K95">
-        <v>115.3832341</v>
+        <v>121.2011294</v>
       </c>
       <c r="L95">
-        <v>120.34264930000001</v>
+        <v>126.20665510000001</v>
       </c>
       <c r="M95">
-        <v>121.5671895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>247.40778449999999</v>
+      </c>
+      <c r="N95">
+        <v>127.3838283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <v>0.47</v>
@@ -4365,7 +4653,7 @@
         <v>0.42</v>
       </c>
       <c r="E96">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F96">
         <v>0.46</v>
@@ -4377,27 +4665,30 @@
         <v>0.3</v>
       </c>
       <c r="I96">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J96">
         <v>0.45</v>
       </c>
       <c r="K96">
-        <v>115.79580420000001</v>
+        <v>120.75349730000001</v>
       </c>
       <c r="L96">
-        <v>120.296412</v>
+        <v>126.61063710000001</v>
       </c>
       <c r="M96">
-        <v>121.60116650000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <v>247.36413440000001</v>
+      </c>
+      <c r="N96">
+        <v>126.71779220000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C97">
         <v>0.47</v>
@@ -4406,7 +4697,7 @@
         <v>0.42</v>
       </c>
       <c r="E97">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F97">
         <v>0.46</v>
@@ -4418,27 +4709,30 @@
         <v>0.3</v>
       </c>
       <c r="I97">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J97">
         <v>0.45</v>
       </c>
       <c r="K97">
-        <v>115.75836219999999</v>
+        <v>121.4396143</v>
       </c>
       <c r="L97">
-        <v>125.06695259999999</v>
+        <v>126.1800289</v>
       </c>
       <c r="M97">
-        <v>137.14917070000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>247.61964319999998</v>
+      </c>
+      <c r="N97">
+        <v>126.8464132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>0.47</v>
@@ -4447,7 +4741,7 @@
         <v>0.42</v>
       </c>
       <c r="E98">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F98">
         <v>0.46</v>
@@ -4459,27 +4753,30 @@
         <v>0.3</v>
       </c>
       <c r="I98">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J98">
         <v>0.45</v>
       </c>
       <c r="K98">
-        <v>120.1030653</v>
+        <v>120.175577</v>
       </c>
       <c r="L98">
-        <v>119.8869883</v>
+        <v>125.5546353</v>
       </c>
       <c r="M98">
-        <v>121.31748690000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>245.73021230000001</v>
+      </c>
+      <c r="N98">
+        <v>127.0120829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99">
         <v>0.47</v>
@@ -4488,7 +4785,7 @@
         <v>0.42</v>
       </c>
       <c r="E99">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F99">
         <v>0.46</v>
@@ -4500,27 +4797,30 @@
         <v>0.3</v>
       </c>
       <c r="I99">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J99">
         <v>0.45</v>
       </c>
       <c r="K99">
-        <v>115.5869294</v>
+        <v>120.2767798</v>
       </c>
       <c r="L99">
-        <v>120.89341090000001</v>
+        <v>126.2659884</v>
       </c>
       <c r="M99">
-        <v>121.8613275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.54276820000001</v>
+      </c>
+      <c r="N99">
+        <v>126.9562936</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C100">
         <v>0.47</v>
@@ -4529,7 +4829,7 @@
         <v>0.42</v>
       </c>
       <c r="E100">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F100">
         <v>0.46</v>
@@ -4541,27 +4841,30 @@
         <v>0.3</v>
       </c>
       <c r="I100">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J100">
         <v>0.45</v>
       </c>
       <c r="K100">
-        <v>116.2898696</v>
+        <v>120.3663052</v>
       </c>
       <c r="L100">
-        <v>120.79053450000001</v>
+        <v>125.7626377</v>
       </c>
       <c r="M100">
-        <v>121.79486869999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.1289429</v>
+      </c>
+      <c r="N100">
+        <v>126.8688205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C101">
         <v>0.47</v>
@@ -4570,7 +4873,7 @@
         <v>0.42</v>
       </c>
       <c r="E101">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="F101">
         <v>0.46</v>
@@ -4582,27 +4885,30 @@
         <v>0.3</v>
       </c>
       <c r="I101">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J101">
         <v>0.45</v>
       </c>
       <c r="K101">
-        <v>116.1416524</v>
+        <v>120.1758349</v>
       </c>
       <c r="L101">
-        <v>120.97890169999999</v>
+        <v>125.63457769999999</v>
       </c>
       <c r="M101">
-        <v>121.9027644</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>245.81041260000001</v>
+      </c>
+      <c r="N101">
+        <v>126.9793639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>0.47</v>
@@ -4611,7 +4917,7 @@
         <v>0.4</v>
       </c>
       <c r="E102">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F102">
         <v>0.54</v>
@@ -4623,27 +4929,30 @@
         <v>0.31</v>
       </c>
       <c r="I102">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J102">
         <v>0.54</v>
       </c>
       <c r="K102">
-        <v>116.2353955</v>
+        <v>120.0684725</v>
       </c>
       <c r="L102">
-        <v>121.0375481</v>
+        <v>125.33396620000001</v>
       </c>
       <c r="M102">
-        <v>122.0016748</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>245.4024387</v>
+      </c>
+      <c r="N102">
+        <v>126.66219719999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>0.47</v>
@@ -4652,7 +4961,7 @@
         <v>0.4</v>
       </c>
       <c r="E103">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F103">
         <v>0.54</v>
@@ -4664,27 +4973,30 @@
         <v>0.31</v>
       </c>
       <c r="I103">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J103">
         <v>0.54</v>
       </c>
       <c r="K103">
-        <v>116.4515873</v>
+        <v>120.2886237</v>
       </c>
       <c r="L103">
-        <v>121.6809914</v>
+        <v>125.8230508</v>
       </c>
       <c r="M103">
-        <v>121.72319950000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.11167449999999</v>
+      </c>
+      <c r="N103">
+        <v>126.8230322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>0.47</v>
@@ -4693,7 +5005,7 @@
         <v>0.4</v>
       </c>
       <c r="E104">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F104">
         <v>0.54</v>
@@ -4705,27 +5017,30 @@
         <v>0.31</v>
       </c>
       <c r="I104">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J104">
         <v>0.54</v>
       </c>
       <c r="K104">
-        <v>114.1703483</v>
+        <v>120.0266324</v>
       </c>
       <c r="L104">
-        <v>118.9434528</v>
+        <v>126.0362599</v>
       </c>
       <c r="M104">
-        <v>119.8427136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.06289229999999</v>
+      </c>
+      <c r="N104">
+        <v>127.7273206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>0.47</v>
@@ -4734,7 +5049,7 @@
         <v>0.4</v>
       </c>
       <c r="E105">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F105">
         <v>0.54</v>
@@ -4746,27 +5061,30 @@
         <v>0.31</v>
       </c>
       <c r="I105">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J105">
         <v>0.54</v>
       </c>
       <c r="K105">
-        <v>114.15757499999999</v>
+        <v>120.45843259999999</v>
       </c>
       <c r="L105">
-        <v>119.60709660000001</v>
+        <v>125.815067</v>
       </c>
       <c r="M105">
-        <v>121.72605160000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.27349959999998</v>
+      </c>
+      <c r="N105">
+        <v>126.58687639999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>0.47</v>
@@ -4775,7 +5093,7 @@
         <v>0.4</v>
       </c>
       <c r="E106">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F106">
         <v>0.54</v>
@@ -4787,27 +5105,30 @@
         <v>0.31</v>
       </c>
       <c r="I106">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J106">
         <v>0.54</v>
       </c>
       <c r="K106">
-        <v>115.85889090000001</v>
+        <v>120.2019274</v>
       </c>
       <c r="L106">
-        <v>121.0000278</v>
+        <v>125.5884902</v>
       </c>
       <c r="M106">
-        <v>122.2888471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>245.79041760000001</v>
+      </c>
+      <c r="N106">
+        <v>126.83200859999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>0.47</v>
@@ -4816,7 +5137,7 @@
         <v>0.4</v>
       </c>
       <c r="E107">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F107">
         <v>0.54</v>
@@ -4828,27 +5149,30 @@
         <v>0.31</v>
       </c>
       <c r="I107">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J107">
         <v>0.54</v>
       </c>
       <c r="K107">
-        <v>116.33652309999999</v>
+        <v>120.5664357</v>
       </c>
       <c r="L107">
-        <v>120.81451749999999</v>
+        <v>125.77043620000001</v>
       </c>
       <c r="M107">
-        <v>121.893766</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.33687190000001</v>
+      </c>
+      <c r="N107">
+        <v>126.8226983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>0.47</v>
@@ -4857,7 +5181,7 @@
         <v>0.4</v>
       </c>
       <c r="E108">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F108">
         <v>0.54</v>
@@ -4869,27 +5193,30 @@
         <v>0.31</v>
       </c>
       <c r="I108">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J108">
         <v>0.54</v>
       </c>
       <c r="K108">
-        <v>115.8890069</v>
+        <v>120.24181179999999</v>
       </c>
       <c r="L108">
-        <v>120.9078117</v>
+        <v>125.7602279</v>
       </c>
       <c r="M108">
-        <v>122.4737372</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.00203970000001</v>
+      </c>
+      <c r="N108">
+        <v>127.0709346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>0.47</v>
@@ -4898,7 +5225,7 @@
         <v>0.4</v>
       </c>
       <c r="E109">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F109">
         <v>0.54</v>
@@ -4910,27 +5237,30 @@
         <v>0.31</v>
       </c>
       <c r="I109">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J109">
         <v>0.54</v>
       </c>
       <c r="K109">
-        <v>116.09844320000001</v>
+        <v>120.8970357</v>
       </c>
       <c r="L109">
-        <v>120.96285</v>
+        <v>125.98664580000001</v>
       </c>
       <c r="M109">
-        <v>122.2782425</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.88368150000002</v>
+      </c>
+      <c r="N109">
+        <v>127.2236553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>0.47</v>
@@ -4939,7 +5269,7 @@
         <v>0.4</v>
       </c>
       <c r="E110">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F110">
         <v>0.54</v>
@@ -4951,27 +5281,30 @@
         <v>0.31</v>
       </c>
       <c r="I110">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J110">
         <v>0.54</v>
       </c>
       <c r="K110">
-        <v>116.0352903</v>
+        <v>120.410192</v>
       </c>
       <c r="L110">
-        <v>120.6573107</v>
+        <v>125.76289389999999</v>
       </c>
       <c r="M110">
-        <v>121.88106569999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246.17308589999999</v>
+      </c>
+      <c r="N110">
+        <v>127.0339537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>0.47</v>
@@ -4980,7 +5313,7 @@
         <v>0.4</v>
       </c>
       <c r="E111">
-        <v>0.35499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F111">
         <v>0.54</v>
@@ -4992,19 +5325,22 @@
         <v>0.31</v>
       </c>
       <c r="I111">
-        <v>0.35499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J111">
         <v>0.54</v>
       </c>
       <c r="K111">
-        <v>116.24714040000001</v>
+        <v>120.8297664</v>
       </c>
       <c r="L111">
-        <v>120.84899129999999</v>
+        <v>125.1613737</v>
       </c>
       <c r="M111">
-        <v>121.8385893</v>
+        <v>245.9911401</v>
+      </c>
+      <c r="N111">
+        <v>126.6190254</v>
       </c>
     </row>
   </sheetData>
